--- a/Интерполированные данные.xlsx
+++ b/Интерполированные данные.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW208"/>
+  <dimension ref="A1:CC208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +666,24 @@
       </c>
       <c r="BW1" s="2" t="n">
         <v>45407</v>
+      </c>
+      <c r="BX1" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="BY1" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="BZ1" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="CA1" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="CB1" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="CC1" s="2" t="n">
+        <v>45413</v>
       </c>
     </row>
     <row r="2">
@@ -748,6 +766,12 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -831,6 +855,12 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -916,6 +946,12 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1003,6 +1039,12 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1092,6 +1134,12 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1183,6 +1231,12 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1276,6 +1330,12 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1371,6 +1431,12 @@
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1468,6 +1534,12 @@
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1567,6 +1639,12 @@
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1668,6 +1746,12 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1771,6 +1855,12 @@
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1876,6 +1966,12 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1983,6 +2079,12 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2092,6 +2194,12 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2203,6 +2311,12 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2316,6 +2430,12 @@
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2431,6 +2551,12 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2548,6 +2674,12 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2667,6 +2799,12 @@
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2788,6 +2926,12 @@
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2911,6 +3055,12 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3036,6 +3186,12 @@
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3163,6 +3319,12 @@
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3292,6 +3454,12 @@
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
       <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3423,6 +3591,12 @@
       <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -3556,6 +3730,12 @@
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3691,6 +3871,12 @@
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr"/>
       <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -3828,6 +4014,12 @@
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
       <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -3967,6 +4159,12 @@
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
       <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -4108,6 +4306,12 @@
       <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="inlineStr"/>
       <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -4251,6 +4455,12 @@
       <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="inlineStr"/>
       <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -4396,6 +4606,12 @@
       <c r="BU34" t="inlineStr"/>
       <c r="BV34" t="inlineStr"/>
       <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -4543,6 +4759,12 @@
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr"/>
       <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -4692,6 +4914,12 @@
       <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="inlineStr"/>
       <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -4843,6 +5071,12 @@
       <c r="BU37" t="inlineStr"/>
       <c r="BV37" t="inlineStr"/>
       <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -4996,6 +5230,12 @@
       <c r="BU38" t="inlineStr"/>
       <c r="BV38" t="inlineStr"/>
       <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -5151,6 +5391,12 @@
       <c r="BU39" t="inlineStr"/>
       <c r="BV39" t="inlineStr"/>
       <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -5308,6 +5554,12 @@
       <c r="BU40" t="inlineStr"/>
       <c r="BV40" t="inlineStr"/>
       <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -5467,6 +5719,12 @@
       <c r="BU41" t="inlineStr"/>
       <c r="BV41" t="inlineStr"/>
       <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -5628,6 +5886,12 @@
       <c r="BU42" t="inlineStr"/>
       <c r="BV42" t="inlineStr"/>
       <c r="BW42" t="inlineStr"/>
+      <c r="BX42" t="inlineStr"/>
+      <c r="BY42" t="inlineStr"/>
+      <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr"/>
+      <c r="CC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -5791,6 +6055,12 @@
       <c r="BU43" t="inlineStr"/>
       <c r="BV43" t="inlineStr"/>
       <c r="BW43" t="inlineStr"/>
+      <c r="BX43" t="inlineStr"/>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
+      <c r="CC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -5956,6 +6226,12 @@
       <c r="BU44" t="inlineStr"/>
       <c r="BV44" t="inlineStr"/>
       <c r="BW44" t="inlineStr"/>
+      <c r="BX44" t="inlineStr"/>
+      <c r="BY44" t="inlineStr"/>
+      <c r="BZ44" t="inlineStr"/>
+      <c r="CA44" t="inlineStr"/>
+      <c r="CB44" t="inlineStr"/>
+      <c r="CC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -6123,6 +6399,12 @@
       <c r="BU45" t="inlineStr"/>
       <c r="BV45" t="inlineStr"/>
       <c r="BW45" t="inlineStr"/>
+      <c r="BX45" t="inlineStr"/>
+      <c r="BY45" t="inlineStr"/>
+      <c r="BZ45" t="inlineStr"/>
+      <c r="CA45" t="inlineStr"/>
+      <c r="CB45" t="inlineStr"/>
+      <c r="CC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -6292,6 +6574,12 @@
       <c r="BU46" t="inlineStr"/>
       <c r="BV46" t="inlineStr"/>
       <c r="BW46" t="inlineStr"/>
+      <c r="BX46" t="inlineStr"/>
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
+      <c r="CB46" t="inlineStr"/>
+      <c r="CC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -6463,6 +6751,12 @@
       <c r="BU47" t="inlineStr"/>
       <c r="BV47" t="inlineStr"/>
       <c r="BW47" t="inlineStr"/>
+      <c r="BX47" t="inlineStr"/>
+      <c r="BY47" t="inlineStr"/>
+      <c r="BZ47" t="inlineStr"/>
+      <c r="CA47" t="inlineStr"/>
+      <c r="CB47" t="inlineStr"/>
+      <c r="CC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -6636,6 +6930,12 @@
       <c r="BU48" t="inlineStr"/>
       <c r="BV48" t="inlineStr"/>
       <c r="BW48" t="inlineStr"/>
+      <c r="BX48" t="inlineStr"/>
+      <c r="BY48" t="inlineStr"/>
+      <c r="BZ48" t="inlineStr"/>
+      <c r="CA48" t="inlineStr"/>
+      <c r="CB48" t="inlineStr"/>
+      <c r="CC48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -6811,6 +7111,12 @@
       <c r="BU49" t="inlineStr"/>
       <c r="BV49" t="inlineStr"/>
       <c r="BW49" t="inlineStr"/>
+      <c r="BX49" t="inlineStr"/>
+      <c r="BY49" t="inlineStr"/>
+      <c r="BZ49" t="inlineStr"/>
+      <c r="CA49" t="inlineStr"/>
+      <c r="CB49" t="inlineStr"/>
+      <c r="CC49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -6988,6 +7294,12 @@
       <c r="BU50" t="inlineStr"/>
       <c r="BV50" t="inlineStr"/>
       <c r="BW50" t="inlineStr"/>
+      <c r="BX50" t="inlineStr"/>
+      <c r="BY50" t="inlineStr"/>
+      <c r="BZ50" t="inlineStr"/>
+      <c r="CA50" t="inlineStr"/>
+      <c r="CB50" t="inlineStr"/>
+      <c r="CC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -7167,6 +7479,12 @@
       <c r="BU51" t="inlineStr"/>
       <c r="BV51" t="inlineStr"/>
       <c r="BW51" t="inlineStr"/>
+      <c r="BX51" t="inlineStr"/>
+      <c r="BY51" t="inlineStr"/>
+      <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr"/>
+      <c r="CC51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -7348,6 +7666,12 @@
       <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="inlineStr"/>
       <c r="BW52" t="inlineStr"/>
+      <c r="BX52" t="inlineStr"/>
+      <c r="BY52" t="inlineStr"/>
+      <c r="BZ52" t="inlineStr"/>
+      <c r="CA52" t="inlineStr"/>
+      <c r="CB52" t="inlineStr"/>
+      <c r="CC52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -7531,6 +7855,12 @@
       <c r="BU53" t="inlineStr"/>
       <c r="BV53" t="inlineStr"/>
       <c r="BW53" t="inlineStr"/>
+      <c r="BX53" t="inlineStr"/>
+      <c r="BY53" t="inlineStr"/>
+      <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr"/>
+      <c r="CC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -7716,6 +8046,12 @@
       <c r="BU54" t="inlineStr"/>
       <c r="BV54" t="inlineStr"/>
       <c r="BW54" t="inlineStr"/>
+      <c r="BX54" t="inlineStr"/>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -7903,6 +8239,12 @@
       <c r="BU55" t="inlineStr"/>
       <c r="BV55" t="inlineStr"/>
       <c r="BW55" t="inlineStr"/>
+      <c r="BX55" t="inlineStr"/>
+      <c r="BY55" t="inlineStr"/>
+      <c r="BZ55" t="inlineStr"/>
+      <c r="CA55" t="inlineStr"/>
+      <c r="CB55" t="inlineStr"/>
+      <c r="CC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -8092,6 +8434,12 @@
       <c r="BU56" t="inlineStr"/>
       <c r="BV56" t="inlineStr"/>
       <c r="BW56" t="inlineStr"/>
+      <c r="BX56" t="inlineStr"/>
+      <c r="BY56" t="inlineStr"/>
+      <c r="BZ56" t="inlineStr"/>
+      <c r="CA56" t="inlineStr"/>
+      <c r="CB56" t="inlineStr"/>
+      <c r="CC56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -8283,6 +8631,12 @@
       <c r="BU57" t="inlineStr"/>
       <c r="BV57" t="inlineStr"/>
       <c r="BW57" t="inlineStr"/>
+      <c r="BX57" t="inlineStr"/>
+      <c r="BY57" t="inlineStr"/>
+      <c r="BZ57" t="inlineStr"/>
+      <c r="CA57" t="inlineStr"/>
+      <c r="CB57" t="inlineStr"/>
+      <c r="CC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -8476,6 +8830,12 @@
       <c r="BU58" t="inlineStr"/>
       <c r="BV58" t="inlineStr"/>
       <c r="BW58" t="inlineStr"/>
+      <c r="BX58" t="inlineStr"/>
+      <c r="BY58" t="inlineStr"/>
+      <c r="BZ58" t="inlineStr"/>
+      <c r="CA58" t="inlineStr"/>
+      <c r="CB58" t="inlineStr"/>
+      <c r="CC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -8671,6 +9031,12 @@
       <c r="BU59" t="inlineStr"/>
       <c r="BV59" t="inlineStr"/>
       <c r="BW59" t="inlineStr"/>
+      <c r="BX59" t="inlineStr"/>
+      <c r="BY59" t="inlineStr"/>
+      <c r="BZ59" t="inlineStr"/>
+      <c r="CA59" t="inlineStr"/>
+      <c r="CB59" t="inlineStr"/>
+      <c r="CC59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -8868,6 +9234,12 @@
       <c r="BU60" t="inlineStr"/>
       <c r="BV60" t="inlineStr"/>
       <c r="BW60" t="inlineStr"/>
+      <c r="BX60" t="inlineStr"/>
+      <c r="BY60" t="inlineStr"/>
+      <c r="BZ60" t="inlineStr"/>
+      <c r="CA60" t="inlineStr"/>
+      <c r="CB60" t="inlineStr"/>
+      <c r="CC60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -9067,6 +9439,12 @@
       <c r="BU61" t="inlineStr"/>
       <c r="BV61" t="inlineStr"/>
       <c r="BW61" t="inlineStr"/>
+      <c r="BX61" t="inlineStr"/>
+      <c r="BY61" t="inlineStr"/>
+      <c r="BZ61" t="inlineStr"/>
+      <c r="CA61" t="inlineStr"/>
+      <c r="CB61" t="inlineStr"/>
+      <c r="CC61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -9268,6 +9646,12 @@
       <c r="BU62" t="inlineStr"/>
       <c r="BV62" t="inlineStr"/>
       <c r="BW62" t="inlineStr"/>
+      <c r="BX62" t="inlineStr"/>
+      <c r="BY62" t="inlineStr"/>
+      <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr"/>
+      <c r="CC62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -9471,6 +9855,12 @@
       <c r="BU63" t="inlineStr"/>
       <c r="BV63" t="inlineStr"/>
       <c r="BW63" t="inlineStr"/>
+      <c r="BX63" t="inlineStr"/>
+      <c r="BY63" t="inlineStr"/>
+      <c r="BZ63" t="inlineStr"/>
+      <c r="CA63" t="inlineStr"/>
+      <c r="CB63" t="inlineStr"/>
+      <c r="CC63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -9676,6 +10066,12 @@
       <c r="BU64" t="inlineStr"/>
       <c r="BV64" t="inlineStr"/>
       <c r="BW64" t="inlineStr"/>
+      <c r="BX64" t="inlineStr"/>
+      <c r="BY64" t="inlineStr"/>
+      <c r="BZ64" t="inlineStr"/>
+      <c r="CA64" t="inlineStr"/>
+      <c r="CB64" t="inlineStr"/>
+      <c r="CC64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -9883,6 +10279,12 @@
       <c r="BU65" t="inlineStr"/>
       <c r="BV65" t="inlineStr"/>
       <c r="BW65" t="inlineStr"/>
+      <c r="BX65" t="inlineStr"/>
+      <c r="BY65" t="inlineStr"/>
+      <c r="BZ65" t="inlineStr"/>
+      <c r="CA65" t="inlineStr"/>
+      <c r="CB65" t="inlineStr"/>
+      <c r="CC65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -10092,6 +10494,12 @@
       <c r="BU66" t="inlineStr"/>
       <c r="BV66" t="inlineStr"/>
       <c r="BW66" t="inlineStr"/>
+      <c r="BX66" t="inlineStr"/>
+      <c r="BY66" t="inlineStr"/>
+      <c r="BZ66" t="inlineStr"/>
+      <c r="CA66" t="inlineStr"/>
+      <c r="CB66" t="inlineStr"/>
+      <c r="CC66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -10303,6 +10711,12 @@
       <c r="BU67" t="inlineStr"/>
       <c r="BV67" t="inlineStr"/>
       <c r="BW67" t="inlineStr"/>
+      <c r="BX67" t="inlineStr"/>
+      <c r="BY67" t="inlineStr"/>
+      <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr"/>
+      <c r="CB67" t="inlineStr"/>
+      <c r="CC67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -10516,6 +10930,12 @@
       <c r="BU68" t="inlineStr"/>
       <c r="BV68" t="inlineStr"/>
       <c r="BW68" t="inlineStr"/>
+      <c r="BX68" t="inlineStr"/>
+      <c r="BY68" t="inlineStr"/>
+      <c r="BZ68" t="inlineStr"/>
+      <c r="CA68" t="inlineStr"/>
+      <c r="CB68" t="inlineStr"/>
+      <c r="CC68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -10731,6 +11151,12 @@
       <c r="BU69" t="inlineStr"/>
       <c r="BV69" t="inlineStr"/>
       <c r="BW69" t="inlineStr"/>
+      <c r="BX69" t="inlineStr"/>
+      <c r="BY69" t="inlineStr"/>
+      <c r="BZ69" t="inlineStr"/>
+      <c r="CA69" t="inlineStr"/>
+      <c r="CB69" t="inlineStr"/>
+      <c r="CC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -10948,6 +11374,12 @@
       <c r="BU70" t="inlineStr"/>
       <c r="BV70" t="inlineStr"/>
       <c r="BW70" t="inlineStr"/>
+      <c r="BX70" t="inlineStr"/>
+      <c r="BY70" t="inlineStr"/>
+      <c r="BZ70" t="inlineStr"/>
+      <c r="CA70" t="inlineStr"/>
+      <c r="CB70" t="inlineStr"/>
+      <c r="CC70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -11167,6 +11599,12 @@
       <c r="BU71" t="inlineStr"/>
       <c r="BV71" t="inlineStr"/>
       <c r="BW71" t="inlineStr"/>
+      <c r="BX71" t="inlineStr"/>
+      <c r="BY71" t="inlineStr"/>
+      <c r="BZ71" t="inlineStr"/>
+      <c r="CA71" t="inlineStr"/>
+      <c r="CB71" t="inlineStr"/>
+      <c r="CC71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -11388,6 +11826,12 @@
       <c r="BU72" t="inlineStr"/>
       <c r="BV72" t="inlineStr"/>
       <c r="BW72" t="inlineStr"/>
+      <c r="BX72" t="inlineStr"/>
+      <c r="BY72" t="inlineStr"/>
+      <c r="BZ72" t="inlineStr"/>
+      <c r="CA72" t="inlineStr"/>
+      <c r="CB72" t="inlineStr"/>
+      <c r="CC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -11611,6 +12055,12 @@
       </c>
       <c r="BV73" t="inlineStr"/>
       <c r="BW73" t="inlineStr"/>
+      <c r="BX73" t="inlineStr"/>
+      <c r="BY73" t="inlineStr"/>
+      <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
+      <c r="CB73" t="inlineStr"/>
+      <c r="CC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -11836,6 +12286,12 @@
         <v>0.70909</v>
       </c>
       <c r="BW74" t="inlineStr"/>
+      <c r="BX74" t="inlineStr"/>
+      <c r="BY74" t="inlineStr"/>
+      <c r="BZ74" t="inlineStr"/>
+      <c r="CA74" t="inlineStr"/>
+      <c r="CB74" t="inlineStr"/>
+      <c r="CC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -12063,6 +12519,12 @@
       <c r="BW75" t="n">
         <v>0.89815</v>
       </c>
+      <c r="BX75" t="inlineStr"/>
+      <c r="BY75" t="inlineStr"/>
+      <c r="BZ75" t="inlineStr"/>
+      <c r="CA75" t="inlineStr"/>
+      <c r="CB75" t="inlineStr"/>
+      <c r="CC75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -12290,6 +12752,14 @@
       <c r="BW76" t="n">
         <v>0.9537</v>
       </c>
+      <c r="BX76" t="n">
+        <v>0.98165</v>
+      </c>
+      <c r="BY76" t="inlineStr"/>
+      <c r="BZ76" t="inlineStr"/>
+      <c r="CA76" t="inlineStr"/>
+      <c r="CB76" t="inlineStr"/>
+      <c r="CC76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -12517,6 +12987,16 @@
       <c r="BW77" t="n">
         <v>0.93519</v>
       </c>
+      <c r="BX77" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="BZ77" t="inlineStr"/>
+      <c r="CA77" t="inlineStr"/>
+      <c r="CB77" t="inlineStr"/>
+      <c r="CC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -12744,6 +13224,18 @@
       <c r="BW78" t="n">
         <v>0.9636400000000001</v>
       </c>
+      <c r="BX78" t="n">
+        <v>0.98182</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>0.99091</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>0.98182</v>
+      </c>
+      <c r="CA78" t="inlineStr"/>
+      <c r="CB78" t="inlineStr"/>
+      <c r="CC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -12971,6 +13463,20 @@
       <c r="BW79" t="n">
         <v>0.99091</v>
       </c>
+      <c r="BX79" t="n">
+        <v>0.99091</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>1.00909</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB79" t="inlineStr"/>
+      <c r="CC79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -13198,6 +13704,22 @@
       <c r="BW80" t="n">
         <v>0.83636</v>
       </c>
+      <c r="BX80" t="n">
+        <v>0.86364</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>0.93636</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>0.94545</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>0.9636400000000001</v>
+      </c>
+      <c r="CB80" t="n">
+        <v>0.97273</v>
+      </c>
+      <c r="CC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -13425,6 +13947,24 @@
       <c r="BW81" t="n">
         <v>0.48182</v>
       </c>
+      <c r="BX81" t="n">
+        <v>0.52727</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>0.64545</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>0.7454499999999999</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>0.79091</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>0.83636</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -13652,6 +14192,24 @@
       <c r="BW82" t="n">
         <v>0.62727</v>
       </c>
+      <c r="BX82" t="n">
+        <v>0.63636</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>0.69091</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>0.72727</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>0.73636</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>0.7454499999999999</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>0.7545500000000001</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -13879,6 +14437,24 @@
       <c r="BW83" t="n">
         <v>0.7156</v>
       </c>
+      <c r="BX83" t="n">
+        <v>0.69912</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>0.72566</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>0.73451</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>0.76147</v>
+      </c>
+      <c r="CB83" t="n">
+        <v>0.77064</v>
+      </c>
+      <c r="CC83" t="n">
+        <v>0.77982</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -14106,6 +14682,24 @@
       <c r="BW84" t="n">
         <v>0.70642</v>
       </c>
+      <c r="BX84" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>0.7168099999999999</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>0.7168099999999999</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>0.74312</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>0.73853</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>0.73394</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -14333,6 +14927,24 @@
       <c r="BW85" t="n">
         <v>0.46364</v>
       </c>
+      <c r="BX85" t="n">
+        <v>0.42105</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>0.44737</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>0.47368</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>0.51818</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>0.5363599999999999</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>0.55455</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -14560,6 +15172,24 @@
       <c r="BW86" t="n">
         <v>0.62385</v>
       </c>
+      <c r="BX86" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>0.60177</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>0.6902700000000001</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>0.69912</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>0.70796</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -14787,6 +15417,24 @@
       <c r="BW87" t="n">
         <v>0.6055</v>
       </c>
+      <c r="BX87" t="n">
+        <v>0.6106200000000001</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>0.64602</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>0.6902700000000001</v>
+      </c>
+      <c r="CB87" t="n">
+        <v>0.71239</v>
+      </c>
+      <c r="CC87" t="n">
+        <v>0.73451</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -15014,6 +15662,24 @@
       <c r="BW88" t="n">
         <v>0.68421</v>
       </c>
+      <c r="BX88" t="n">
+        <v>0.7631599999999999</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>0.80702</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>0.86842</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>0.86842</v>
+      </c>
+      <c r="CB88" t="n">
+        <v>0.89035</v>
+      </c>
+      <c r="CC88" t="n">
+        <v>0.91228</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -15241,6 +15907,24 @@
       <c r="BW89" t="n">
         <v>0.90435</v>
       </c>
+      <c r="BX89" t="n">
+        <v>0.8956499999999999</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>0.91304</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>0.93913</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>0.93913</v>
+      </c>
+      <c r="CB89" t="n">
+        <v>0.95217</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>0.96522</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -15468,6 +16152,24 @@
       <c r="BW90" t="n">
         <v>0.96491</v>
       </c>
+      <c r="BX90" t="n">
+        <v>0.95614</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>0.96491</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>0.98246</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>0.97368</v>
+      </c>
+      <c r="CB90" t="n">
+        <v>0.98246</v>
+      </c>
+      <c r="CC90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -15694,6 +16396,24 @@
       </c>
       <c r="BW91" t="n">
         <v>0.5087699999999999</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>0.52632</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>0.52632</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>0.55263</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>0.57895</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>0.59649</v>
       </c>
     </row>
     <row r="92">
@@ -15838,6 +16558,24 @@
       <c r="BW92" t="n">
         <v>0.1913</v>
       </c>
+      <c r="BX92" t="n">
+        <v>0.2087</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>0.22609</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>0.23478</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>0.26087</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>0.27391</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>0.28696</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -16065,6 +16803,24 @@
       <c r="BW93" t="n">
         <v>0.27826</v>
       </c>
+      <c r="BX93" t="n">
+        <v>0.29565</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>0.31304</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>0.32174</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>0.34783</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>0.36087</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>0.37391</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -16292,6 +17048,24 @@
       <c r="BW94" t="n">
         <v>0.32174</v>
       </c>
+      <c r="BX94" t="n">
+        <v>0.32174</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>0.33043</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>0.34783</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>0.38261</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -16519,6 +17293,24 @@
       <c r="BW95" t="n">
         <v>0.17699</v>
       </c>
+      <c r="BX95" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>0.34956</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>0.38053</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -16746,6 +17538,24 @@
       <c r="BW96" t="n">
         <v>0.15929</v>
       </c>
+      <c r="BX96" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CB96" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>0.30088</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -16973,6 +17783,24 @@
       <c r="BW97" t="n">
         <v>0.40179</v>
       </c>
+      <c r="BX97" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>0.45536</v>
+      </c>
+      <c r="CB97" t="n">
+        <v>0.48661</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>0.51786</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -17200,6 +18028,24 @@
       <c r="BW98" t="n">
         <v>0.44643</v>
       </c>
+      <c r="BX98" t="n">
+        <v>0.44643</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>0.45536</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>0.44643</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>0.47321</v>
+      </c>
+      <c r="CB98" t="n">
+        <v>0.49107</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>0.50893</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -17427,6 +18273,24 @@
       <c r="BW99" t="n">
         <v>0.15044</v>
       </c>
+      <c r="BX99" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="BY99" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CB99" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CC99" t="n">
+        <v>0.15929</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -17654,6 +18518,24 @@
       <c r="BW100" t="n">
         <v>0.13274</v>
       </c>
+      <c r="BX100" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="BY100" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CB100" t="n">
+        <v>0.18142</v>
+      </c>
+      <c r="CC100" t="n">
+        <v>0.18584</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -17881,6 +18763,24 @@
       <c r="BW101" t="n">
         <v>0.21239</v>
       </c>
+      <c r="BX101" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CB101" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CC101" t="n">
+        <v>0.23894</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -18108,6 +19008,24 @@
       <c r="BW102" t="n">
         <v>0.22124</v>
       </c>
+      <c r="BX102" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="CB102" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CC102" t="n">
+        <v>0.23009</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -18335,6 +19253,24 @@
       <c r="BW103" t="n">
         <v>0.23009</v>
       </c>
+      <c r="BX103" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CB103" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CC103" t="n">
+        <v>0.23009</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -18562,6 +19498,24 @@
       <c r="BW104" t="n">
         <v>0.41593</v>
       </c>
+      <c r="BX104" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>0.43363</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>0.43363</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>0.45133</v>
+      </c>
+      <c r="CB104" t="n">
+        <v>0.46018</v>
+      </c>
+      <c r="CC104" t="n">
+        <v>0.46903</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -18789,6 +19743,24 @@
       <c r="BW105" t="n">
         <v>0.44248</v>
       </c>
+      <c r="BX105" t="n">
+        <v>0.44248</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>0.45133</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>0.45133</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>0.46903</v>
+      </c>
+      <c r="CB105" t="n">
+        <v>0.47788</v>
+      </c>
+      <c r="CC105" t="n">
+        <v>0.48673</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -19016,6 +19988,24 @@
       <c r="BW106" t="n">
         <v>0.19298</v>
       </c>
+      <c r="BX106" t="n">
+        <v>0.19298</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>0.18421</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>0.18421</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>0.19298</v>
+      </c>
+      <c r="CB106" t="n">
+        <v>0.19737</v>
+      </c>
+      <c r="CC106" t="n">
+        <v>0.20175</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -19243,6 +20233,24 @@
       <c r="BW107" t="n">
         <v>0.37168</v>
       </c>
+      <c r="BX107" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>0.39823</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -19470,6 +20478,24 @@
       <c r="BW108" t="n">
         <v>0.23894</v>
       </c>
+      <c r="BX108" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>0.26106</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>0.25664</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -19697,6 +20723,24 @@
       <c r="BW109" t="n">
         <v>0.26549</v>
       </c>
+      <c r="BX109" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>0.32301</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>0.33628</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -19924,6 +20968,24 @@
       <c r="BW110" t="n">
         <v>0.28319</v>
       </c>
+      <c r="BX110" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>0.29646</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>0.30088</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -20151,6 +21213,24 @@
       <c r="BW111" t="n">
         <v>0.33929</v>
       </c>
+      <c r="BX111" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>0.36607</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -20377,6 +21457,24 @@
       </c>
       <c r="BW112" t="n">
         <v>0.26549</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>0.30088</v>
       </c>
     </row>
     <row r="113">
@@ -20539,6 +21637,24 @@
       <c r="BW113" t="n">
         <v>0.0708</v>
       </c>
+      <c r="BX113" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>0.0885</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -20766,6 +21882,24 @@
       <c r="BW114" t="n">
         <v>0.10619</v>
       </c>
+      <c r="BX114" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>0.11504</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -20993,6 +22127,24 @@
       <c r="BW115" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="BX115" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>0.10619</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -21220,6 +22372,24 @@
       <c r="BW116" t="n">
         <v>0.0885</v>
       </c>
+      <c r="BX116" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>0.09735000000000001</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -21447,6 +22617,24 @@
       <c r="BW117" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="BX117" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>0.10619</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -21674,6 +22862,24 @@
       <c r="BW118" t="n">
         <v>0.26316</v>
       </c>
+      <c r="BX118" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="CB118" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="CC118" t="n">
+        <v>0.26316</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -21901,6 +23107,24 @@
       <c r="BW119" t="n">
         <v>0.27434</v>
       </c>
+      <c r="BX119" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BY119" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BZ119" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CB119" t="n">
+        <v>0.27876</v>
+      </c>
+      <c r="CC119" t="n">
+        <v>0.28319</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -22128,6 +23352,24 @@
       <c r="BW120" t="n">
         <v>0.14286</v>
       </c>
+      <c r="BX120" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="BY120" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CB120" t="n">
+        <v>0.14732</v>
+      </c>
+      <c r="CC120" t="n">
+        <v>0.15179</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -22355,6 +23597,24 @@
       <c r="BW121" t="n">
         <v>0.16071</v>
       </c>
+      <c r="BX121" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CB121" t="n">
+        <v>0.17411</v>
+      </c>
+      <c r="CC121" t="n">
+        <v>0.17857</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -22582,6 +23842,24 @@
       <c r="BW122" t="n">
         <v>0.13393</v>
       </c>
+      <c r="BX122" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="BY122" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CB122" t="n">
+        <v>0.14732</v>
+      </c>
+      <c r="CC122" t="n">
+        <v>0.15179</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -22809,6 +24087,24 @@
       <c r="BW123" t="n">
         <v>0.17699</v>
       </c>
+      <c r="BX123" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CB123" t="n">
+        <v>0.11062</v>
+      </c>
+      <c r="CC123" t="n">
+        <v>0.11504</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -23036,6 +24332,24 @@
       <c r="BW124" t="n">
         <v>0.18584</v>
       </c>
+      <c r="BX124" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CB124" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CC124" t="n">
+        <v>0.13274</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -23263,6 +24577,24 @@
       <c r="BW125" t="n">
         <v>0.17857</v>
       </c>
+      <c r="BX125" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CB125" t="n">
+        <v>0.20089</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>0.20536</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -23490,6 +24822,24 @@
       <c r="BW126" t="n">
         <v>0.16667</v>
       </c>
+      <c r="BX126" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CB126" t="n">
+        <v>0.18421</v>
+      </c>
+      <c r="CC126" t="n">
+        <v>0.19298</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -23717,6 +25067,24 @@
       <c r="BW127" t="n">
         <v>0.11304</v>
       </c>
+      <c r="BX127" t="n">
+        <v>0.10435</v>
+      </c>
+      <c r="BY127" t="n">
+        <v>0.10435</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>0.10435</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>0.10435</v>
+      </c>
+      <c r="CB127" t="n">
+        <v>0.12174</v>
+      </c>
+      <c r="CC127" t="n">
+        <v>0.13913</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -23944,6 +25312,24 @@
       <c r="BW128" t="n">
         <v>0.20354</v>
       </c>
+      <c r="BX128" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="BY128" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CB128" t="n">
+        <v>0.22566</v>
+      </c>
+      <c r="CC128" t="n">
+        <v>0.24779</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -24171,6 +25557,24 @@
       <c r="BW129" t="n">
         <v>0.18584</v>
       </c>
+      <c r="BX129" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="BY129" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CB129" t="n">
+        <v>0.21681</v>
+      </c>
+      <c r="CC129" t="n">
+        <v>0.23894</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -24398,6 +25802,24 @@
       <c r="BW130" t="n">
         <v>0.21239</v>
       </c>
+      <c r="BX130" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="BY130" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CB130" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CC130" t="n">
+        <v>0.25664</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -24625,6 +26047,24 @@
       <c r="BW131" t="n">
         <v>0.18584</v>
       </c>
+      <c r="BX131" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="BY131" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="BZ131" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CB131" t="n">
+        <v>0.19912</v>
+      </c>
+      <c r="CC131" t="n">
+        <v>0.20354</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -24852,6 +26292,24 @@
       <c r="BW132" t="n">
         <v>0.25</v>
       </c>
+      <c r="BX132" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY132" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CB132" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CC132" t="n">
+        <v>0.30357</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -25078,6 +26536,24 @@
       </c>
       <c r="BW133" t="n">
         <v>0.26549</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="BY133" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CB133" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CC133" t="n">
+        <v>0.30088</v>
       </c>
     </row>
     <row r="134">
@@ -25288,6 +26764,24 @@
       <c r="BW134" t="n">
         <v>0.10526</v>
       </c>
+      <c r="BX134" t="n">
+        <v>0.10526</v>
+      </c>
+      <c r="BY134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
+      <c r="BZ134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
+      <c r="CB134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
+      <c r="CC134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -25515,6 +27009,24 @@
       <c r="BW135" t="n">
         <v>0.17699</v>
       </c>
+      <c r="BX135" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="BY135" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="BZ135" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CA135" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CB135" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CC135" t="n">
+        <v>0.19469</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -25742,6 +27254,24 @@
       <c r="BW136" t="n">
         <v>0.23009</v>
       </c>
+      <c r="BX136" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="BY136" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BZ136" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CA136" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CB136" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CC136" t="n">
+        <v>0.26549</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -25969,6 +27499,24 @@
       <c r="BW137" t="n">
         <v>0.20354</v>
       </c>
+      <c r="BX137" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="BY137" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="BZ137" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="CA137" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CB137" t="n">
+        <v>0.23451</v>
+      </c>
+      <c r="CC137" t="n">
+        <v>0.23894</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -26196,6 +27744,24 @@
       <c r="BW138" t="n">
         <v>0.16814</v>
       </c>
+      <c r="BX138" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="BY138" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="BZ138" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CA138" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CB138" t="n">
+        <v>0.18142</v>
+      </c>
+      <c r="CC138" t="n">
+        <v>0.18584</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -26423,6 +27989,24 @@
       <c r="BW139" t="n">
         <v>0.13274</v>
       </c>
+      <c r="BX139" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="BY139" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="BZ139" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CA139" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CB139" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CC139" t="n">
+        <v>0.14159</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -26650,6 +28234,24 @@
       <c r="BW140" t="n">
         <v>0.15179</v>
       </c>
+      <c r="BX140" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="BY140" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="BZ140" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CA140" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CB140" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CC140" t="n">
+        <v>0.17857</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -26877,6 +28479,24 @@
       <c r="BW141" t="n">
         <v>0.13274</v>
       </c>
+      <c r="BX141" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="BY141" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="BZ141" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CA141" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CB141" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CC141" t="n">
+        <v>0.15044</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -27104,6 +28724,24 @@
       <c r="BW142" t="n">
         <v>0.22124</v>
       </c>
+      <c r="BX142" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="BY142" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="BZ142" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CA142" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CB142" t="n">
+        <v>0.25221</v>
+      </c>
+      <c r="CC142" t="n">
+        <v>0.25664</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -27331,6 +28969,24 @@
       <c r="BW143" t="n">
         <v>0.25664</v>
       </c>
+      <c r="BX143" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BY143" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BZ143" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CA143" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CB143" t="n">
+        <v>0.29646</v>
+      </c>
+      <c r="CC143" t="n">
+        <v>0.30088</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -27558,6 +29214,24 @@
       <c r="BW144" t="n">
         <v>0.30088</v>
       </c>
+      <c r="BX144" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="BY144" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="BZ144" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CA144" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CB144" t="n">
+        <v>0.33186</v>
+      </c>
+      <c r="CC144" t="n">
+        <v>0.33628</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -27785,6 +29459,24 @@
       <c r="BW145" t="n">
         <v>0.24779</v>
       </c>
+      <c r="BX145" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="BY145" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="BZ145" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CA145" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CB145" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CC145" t="n">
+        <v>0.25664</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -28012,6 +29704,24 @@
       <c r="BW146" t="n">
         <v>0.25</v>
       </c>
+      <c r="BX146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY146" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="BZ146" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CA146" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CB146" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CC146" t="n">
+        <v>0.25893</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -28239,6 +29949,24 @@
       <c r="BW147" t="n">
         <v>0.27679</v>
       </c>
+      <c r="BX147" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="BY147" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="BZ147" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CA147" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CB147" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CC147" t="n">
+        <v>0.28571</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -28466,6 +30194,24 @@
       <c r="BW148" t="n">
         <v>0.17857</v>
       </c>
+      <c r="BX148" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="BY148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CA148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CB148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CC148" t="n">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -28693,6 +30439,24 @@
       <c r="BW149" t="n">
         <v>0.27434</v>
       </c>
+      <c r="BX149" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BY149" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CA149" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CB149" t="n">
+        <v>0.28761</v>
+      </c>
+      <c r="CC149" t="n">
+        <v>0.29204</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -28920,6 +30684,24 @@
       <c r="BW150" t="n">
         <v>0.26549</v>
       </c>
+      <c r="BX150" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="BY150" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="BZ150" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CA150" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CB150" t="n">
+        <v>0.28761</v>
+      </c>
+      <c r="CC150" t="n">
+        <v>0.29204</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -29147,6 +30929,24 @@
       <c r="BW151" t="n">
         <v>0.25664</v>
       </c>
+      <c r="BX151" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BY151" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CA151" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CB151" t="n">
+        <v>0.27876</v>
+      </c>
+      <c r="CC151" t="n">
+        <v>0.28319</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -29374,6 +31174,24 @@
       <c r="BW152" t="n">
         <v>0.20354</v>
       </c>
+      <c r="BX152" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="BY152" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="CA152" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CB152" t="n">
+        <v>0.22566</v>
+      </c>
+      <c r="CC152" t="n">
+        <v>0.23009</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -29601,6 +31419,24 @@
       <c r="BW153" t="n">
         <v>0.25</v>
       </c>
+      <c r="BX153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BZ153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CA153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CB153" t="n">
+        <v>0.25446</v>
+      </c>
+      <c r="CC153" t="n">
+        <v>0.25893</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -29828,6 +31664,24 @@
       <c r="BW154" t="n">
         <v>0.23009</v>
       </c>
+      <c r="BX154" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BY154" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="BZ154" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CA154" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CB154" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CC154" t="n">
+        <v>0.23894</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -30055,6 +31909,24 @@
       <c r="BW155" t="n">
         <v>0.10619</v>
       </c>
+      <c r="BX155" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CA155" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CB155" t="n">
+        <v>0.13717</v>
+      </c>
+      <c r="CC155" t="n">
+        <v>0.14159</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -30282,6 +32154,24 @@
       <c r="BW156" t="n">
         <v>0.25664</v>
       </c>
+      <c r="BX156" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="BZ156" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CA156" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CB156" t="n">
+        <v>0.30531</v>
+      </c>
+      <c r="CC156" t="n">
+        <v>0.30973</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -30509,6 +32399,24 @@
       <c r="BW157" t="n">
         <v>0.34513</v>
       </c>
+      <c r="BX157" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="BY157" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>0.37168</v>
+      </c>
+      <c r="CA157" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CB157" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CC157" t="n">
+        <v>0.38938</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -30736,6 +32644,24 @@
       <c r="BW158" t="n">
         <v>0.36283</v>
       </c>
+      <c r="BX158" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="BY158" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="BZ158" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CA158" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CB158" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CC158" t="n">
+        <v>0.39823</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -30963,6 +32889,24 @@
       <c r="BW159" t="n">
         <v>0.2807</v>
       </c>
+      <c r="BX159" t="n">
+        <v>0.2807</v>
+      </c>
+      <c r="BY159" t="n">
+        <v>0.2807</v>
+      </c>
+      <c r="BZ159" t="n">
+        <v>0.29825</v>
+      </c>
+      <c r="CA159" t="n">
+        <v>0.31579</v>
+      </c>
+      <c r="CB159" t="n">
+        <v>0.31579</v>
+      </c>
+      <c r="CC159" t="n">
+        <v>0.31579</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -31190,6 +33134,24 @@
       <c r="BW160" t="n">
         <v>0.58772</v>
       </c>
+      <c r="BX160" t="n">
+        <v>0.58772</v>
+      </c>
+      <c r="BY160" t="n">
+        <v>0.58772</v>
+      </c>
+      <c r="BZ160" t="n">
+        <v>0.59649</v>
+      </c>
+      <c r="CA160" t="n">
+        <v>0.61404</v>
+      </c>
+      <c r="CB160" t="n">
+        <v>0.61404</v>
+      </c>
+      <c r="CC160" t="n">
+        <v>0.61404</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -31417,6 +33379,24 @@
       <c r="BW161" t="n">
         <v>0.58772</v>
       </c>
+      <c r="BX161" t="n">
+        <v>0.58772</v>
+      </c>
+      <c r="BY161" t="n">
+        <v>0.58772</v>
+      </c>
+      <c r="BZ161" t="n">
+        <v>0.59649</v>
+      </c>
+      <c r="CA161" t="n">
+        <v>0.57895</v>
+      </c>
+      <c r="CB161" t="n">
+        <v>0.57895</v>
+      </c>
+      <c r="CC161" t="n">
+        <v>0.57895</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -31644,6 +33624,24 @@
       <c r="BW162" t="n">
         <v>0.18421</v>
       </c>
+      <c r="BX162" t="n">
+        <v>0.18421</v>
+      </c>
+      <c r="BY162" t="n">
+        <v>0.18421</v>
+      </c>
+      <c r="BZ162" t="n">
+        <v>0.19298</v>
+      </c>
+      <c r="CA162" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CB162" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CC162" t="n">
+        <v>0.17544</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -31871,6 +33869,24 @@
       <c r="BW163" t="n">
         <v>0.2807</v>
       </c>
+      <c r="BX163" t="n">
+        <v>0.28947</v>
+      </c>
+      <c r="BY163" t="n">
+        <v>0.28947</v>
+      </c>
+      <c r="BZ163" t="n">
+        <v>0.28947</v>
+      </c>
+      <c r="CA163" t="n">
+        <v>0.27193</v>
+      </c>
+      <c r="CB163" t="n">
+        <v>0.27632</v>
+      </c>
+      <c r="CC163" t="n">
+        <v>0.2807</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -32098,6 +34114,24 @@
       <c r="BW164" t="n">
         <v>0.34513</v>
       </c>
+      <c r="BX164" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="BY164" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="BZ164" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CA164" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CB164" t="n">
+        <v>0.34071</v>
+      </c>
+      <c r="CC164" t="n">
+        <v>0.34513</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -32325,6 +34359,24 @@
       <c r="BW165" t="n">
         <v>0.38053</v>
       </c>
+      <c r="BX165" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="BY165" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="BZ165" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CA165" t="n">
+        <v>0.37168</v>
+      </c>
+      <c r="CB165" t="n">
+        <v>0.37611</v>
+      </c>
+      <c r="CC165" t="n">
+        <v>0.38053</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -32552,6 +34604,24 @@
       <c r="BW166" t="n">
         <v>0.40708</v>
       </c>
+      <c r="BX166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="BY166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="BZ166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CA166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CB166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CC166" t="n">
+        <v>0.41593</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -32779,6 +34849,24 @@
       <c r="BW167" t="n">
         <v>0.39286</v>
       </c>
+      <c r="BX167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="BY167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="BZ167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CA167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CB167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CC167" t="n">
+        <v>0.38393</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -33006,6 +35094,24 @@
       <c r="BW168" t="n">
         <v>0.34821</v>
       </c>
+      <c r="BX168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="BY168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="BZ168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CA168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CB168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CC168" t="n">
+        <v>0.33929</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -33233,6 +35339,24 @@
       <c r="BW169" t="n">
         <v>0.14035</v>
       </c>
+      <c r="BX169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="BY169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="BZ169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CA169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CB169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CC169" t="n">
+        <v>0.14035</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -33460,6 +35584,24 @@
       <c r="BW170" t="n">
         <v>0.12389</v>
       </c>
+      <c r="BX170" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="BY170" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="BZ170" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CA170" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CB170" t="n">
+        <v>0.13717</v>
+      </c>
+      <c r="CC170" t="n">
+        <v>0.14159</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -33687,6 +35829,24 @@
       <c r="BW171" t="n">
         <v>0.11504</v>
       </c>
+      <c r="BX171" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BY171" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BZ171" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CA171" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CB171" t="n">
+        <v>0.12832</v>
+      </c>
+      <c r="CC171" t="n">
+        <v>0.13274</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -33913,6 +36073,24 @@
       </c>
       <c r="BW172" t="n">
         <v>0.09735000000000001</v>
+      </c>
+      <c r="BX172" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BY172" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BZ172" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CA172" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CB172" t="n">
+        <v>0.11062</v>
+      </c>
+      <c r="CC172" t="n">
+        <v>0.11504</v>
       </c>
     </row>
     <row r="173">
@@ -34057,6 +36235,24 @@
       <c r="BW173" t="n">
         <v>0.13274</v>
       </c>
+      <c r="BX173" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="BY173" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="BZ173" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CA173" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CB173" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CC173" t="n">
+        <v>0.14159</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -34200,6 +36396,24 @@
       <c r="BW174" t="n">
         <v>0.15044</v>
       </c>
+      <c r="BX174" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="BY174" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="BZ174" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CA174" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CB174" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CC174" t="n">
+        <v>0.15929</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -34343,6 +36557,24 @@
       <c r="BW175" t="n">
         <v>0.10811</v>
       </c>
+      <c r="BX175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="BY175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="BZ175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CA175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CB175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CC175" t="n">
+        <v>0.10811</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -34486,6 +36718,24 @@
       <c r="BW176" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="BX176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BY176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BZ176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CA176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CB176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CC176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -34629,6 +36879,24 @@
       <c r="BW177" t="n">
         <v>0.11504</v>
       </c>
+      <c r="BX177" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BY177" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BZ177" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CA177" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CB177" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CC177" t="n">
+        <v>0.12389</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -34772,6 +37040,24 @@
       <c r="BW178" t="n">
         <v>0.12389</v>
       </c>
+      <c r="BX178" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="BY178" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="BZ178" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CA178" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CB178" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CC178" t="n">
+        <v>0.13274</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -34915,6 +37201,24 @@
       <c r="BW179" t="n">
         <v>0.12281</v>
       </c>
+      <c r="BX179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="BY179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="BZ179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="CA179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="CB179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="CC179" t="n">
+        <v>0.12281</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -35058,6 +37362,24 @@
       <c r="BW180" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="BX180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BY180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="BZ180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CA180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CB180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CC180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -35201,6 +37523,24 @@
       <c r="BW181" t="n">
         <v>0.07142999999999999</v>
       </c>
+      <c r="BX181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="BY181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="BZ181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CA181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CB181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CC181" t="n">
+        <v>0.07142999999999999</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -35344,6 +37684,24 @@
       <c r="BW182" t="n">
         <v>0.08928999999999999</v>
       </c>
+      <c r="BX182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="BY182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="BZ182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CA182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CB182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CC182" t="n">
+        <v>0.08928999999999999</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -35487,6 +37845,24 @@
       <c r="BW183" t="n">
         <v>0.06195</v>
       </c>
+      <c r="BX183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="BY183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="BZ183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="CA183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="CB183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="CC183" t="n">
+        <v>0.06195</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -35630,6 +38006,24 @@
       <c r="BW184" t="n">
         <v>0.04425</v>
       </c>
+      <c r="BX184" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BY184" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BZ184" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CA184" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CB184" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CC184" t="n">
+        <v>0.04425</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -35773,6 +38167,24 @@
       <c r="BW185" t="n">
         <v>0.04425</v>
       </c>
+      <c r="BX185" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BY185" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BZ185" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CA185" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CB185" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CC185" t="n">
+        <v>0.04425</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -35916,6 +38328,24 @@
       <c r="BW186" t="n">
         <v>0.04425</v>
       </c>
+      <c r="BX186" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BY186" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BZ186" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CA186" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CB186" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CC186" t="n">
+        <v>0.04425</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -36059,6 +38489,24 @@
       <c r="BW187" t="n">
         <v>0.04425</v>
       </c>
+      <c r="BX187" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BY187" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="BZ187" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CA187" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CB187" t="n">
+        <v>0.04425</v>
+      </c>
+      <c r="CC187" t="n">
+        <v>0.04425</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -36202,6 +38650,24 @@
       <c r="BW188" t="n">
         <v>0.06306</v>
       </c>
+      <c r="BX188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="BY188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="BZ188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CA188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CB188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CC188" t="n">
+        <v>0.06306</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -36345,6 +38811,24 @@
       <c r="BW189" t="n">
         <v>0.06306</v>
       </c>
+      <c r="BX189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="BY189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="BZ189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CA189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CB189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CC189" t="n">
+        <v>0.06306</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -36488,6 +38972,24 @@
       <c r="BW190" t="n">
         <v>0.01786</v>
       </c>
+      <c r="BX190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BY190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BZ190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CA190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CB190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CC190" t="n">
+        <v>0.01786</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -36631,6 +39133,24 @@
       <c r="BW191" t="n">
         <v>0.0708</v>
       </c>
+      <c r="BX191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="BY191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="BZ191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CA191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CB191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CC191" t="n">
+        <v>0.0708</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -36774,6 +39294,24 @@
       <c r="BW192" t="n">
         <v>0.07965</v>
       </c>
+      <c r="BX192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BY192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BZ192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CA192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CB192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CC192" t="n">
+        <v>0.0885</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -36917,6 +39455,24 @@
       <c r="BW193" t="n">
         <v>0.07965</v>
       </c>
+      <c r="BX193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BY193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="BZ193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CA193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CB193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CC193" t="n">
+        <v>0.0885</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -37060,6 +39616,24 @@
       <c r="BW194" t="n">
         <v>0.0614</v>
       </c>
+      <c r="BX194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="BY194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="BZ194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="CA194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="CB194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="CC194" t="n">
+        <v>0.0614</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -37203,6 +39777,24 @@
       <c r="BW195" t="n">
         <v>0.0708</v>
       </c>
+      <c r="BX195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="BY195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="BZ195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CA195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CB195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CC195" t="n">
+        <v>0.0708</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -37346,6 +39938,24 @@
       <c r="BW196" t="n">
         <v>0.11504</v>
       </c>
+      <c r="BX196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BY196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="BZ196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CA196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CB196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CC196" t="n">
+        <v>0.11504</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -37489,6 +40099,24 @@
       <c r="BW197" t="n">
         <v>0.10619</v>
       </c>
+      <c r="BX197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BY197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="BZ197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CA197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CB197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CC197" t="n">
+        <v>0.10619</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -37632,6 +40260,24 @@
       <c r="BW198" t="n">
         <v>0.07965</v>
       </c>
+      <c r="BX198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="BY198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="BZ198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CA198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CB198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CC198" t="n">
+        <v>0.07965</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -37775,6 +40421,24 @@
       <c r="BW199" t="n">
         <v>0.0177</v>
       </c>
+      <c r="BX199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="BY199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="BZ199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CA199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CB199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CC199" t="n">
+        <v>0.0177</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -37918,6 +40582,24 @@
       <c r="BW200" t="n">
         <v>0.00885</v>
       </c>
+      <c r="BX200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="BY200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="BZ200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CA200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CB200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CC200" t="n">
+        <v>0.00885</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -38061,6 +40743,24 @@
       <c r="BW201" t="n">
         <v>0.01786</v>
       </c>
+      <c r="BX201" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BY201" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BZ201" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CA201" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CB201" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CC201" t="n">
+        <v>0.01786</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -38202,6 +40902,24 @@
         <v>0.01786</v>
       </c>
       <c r="BW202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BX202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BY202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="BZ202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CA202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CB202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CC202" t="n">
         <v>0.01786</v>
       </c>
     </row>
@@ -38313,6 +41031,24 @@
       <c r="BW203" t="n">
         <v>0.00885</v>
       </c>
+      <c r="BX203" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="BY203" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="BZ203" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CA203" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CB203" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CC203" t="n">
+        <v>0.00885</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -38426,6 +41162,24 @@
       <c r="BW204" t="n">
         <v>0.00877</v>
       </c>
+      <c r="BX204" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BY204" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BZ204" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CA204" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CB204" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CC204" t="n">
+        <v>0.00877</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -38537,6 +41291,24 @@
         <v>0.00877</v>
       </c>
       <c r="BW205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BX205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BY205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BZ205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CA205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CB205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CC205" t="n">
         <v>0.00877</v>
       </c>
     </row>
@@ -38644,6 +41416,24 @@
       <c r="BW206" t="n">
         <v>0.15652</v>
       </c>
+      <c r="BX206" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BY206" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BZ206" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CA206" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CB206" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CC206" t="n">
+        <v>0.15652</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -38749,6 +41539,24 @@
       <c r="BW207" t="n">
         <v>0.15652</v>
       </c>
+      <c r="BX207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BY207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BZ207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CA207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CB207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CC207" t="n">
+        <v>0.15652</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -38854,6 +41662,24 @@
       <c r="BW208" t="n">
         <v>0.008699999999999999</v>
       </c>
+      <c r="BX208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="BY208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="BZ208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CA208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CB208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CC208" t="n">
+        <v>0.008699999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Интерполированные данные.xlsx
+++ b/Интерполированные данные.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC208"/>
+  <dimension ref="A1:CQ209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +684,48 @@
       </c>
       <c r="CC1" s="2" t="n">
         <v>45413</v>
+      </c>
+      <c r="CD1" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="CE1" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="CF1" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="CG1" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="CH1" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="CI1" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="CJ1" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="CK1" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="CL1" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="CM1" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="CN1" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="CO1" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="CP1" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="CQ1" s="2" t="n">
+        <v>45427</v>
       </c>
     </row>
     <row r="2">
@@ -772,6 +814,20 @@
       <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr"/>
       <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -861,6 +917,20 @@
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -952,6 +1022,20 @@
       <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1045,6 +1129,20 @@
       <c r="CA5" t="inlineStr"/>
       <c r="CB5" t="inlineStr"/>
       <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1140,6 +1238,20 @@
       <c r="CA6" t="inlineStr"/>
       <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1237,6 +1349,20 @@
       <c r="CA7" t="inlineStr"/>
       <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1336,6 +1462,20 @@
       <c r="CA8" t="inlineStr"/>
       <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1437,6 +1577,20 @@
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1540,6 +1694,20 @@
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1645,6 +1813,20 @@
       <c r="CA11" t="inlineStr"/>
       <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1752,6 +1934,20 @@
       <c r="CA12" t="inlineStr"/>
       <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1861,6 +2057,20 @@
       <c r="CA13" t="inlineStr"/>
       <c r="CB13" t="inlineStr"/>
       <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1972,6 +2182,20 @@
       <c r="CA14" t="inlineStr"/>
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2085,6 +2309,20 @@
       <c r="CA15" t="inlineStr"/>
       <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2200,6 +2438,20 @@
       <c r="CA16" t="inlineStr"/>
       <c r="CB16" t="inlineStr"/>
       <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2317,6 +2569,20 @@
       <c r="CA17" t="inlineStr"/>
       <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2436,6 +2702,20 @@
       <c r="CA18" t="inlineStr"/>
       <c r="CB18" t="inlineStr"/>
       <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2557,6 +2837,20 @@
       <c r="CA19" t="inlineStr"/>
       <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2680,6 +2974,20 @@
       <c r="CA20" t="inlineStr"/>
       <c r="CB20" t="inlineStr"/>
       <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2805,6 +3113,20 @@
       <c r="CA21" t="inlineStr"/>
       <c r="CB21" t="inlineStr"/>
       <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2932,6 +3254,20 @@
       <c r="CA22" t="inlineStr"/>
       <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3061,6 +3397,20 @@
       <c r="CA23" t="inlineStr"/>
       <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3192,6 +3542,20 @@
       <c r="CA24" t="inlineStr"/>
       <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3325,6 +3689,20 @@
       <c r="CA25" t="inlineStr"/>
       <c r="CB25" t="inlineStr"/>
       <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3460,6 +3838,20 @@
       <c r="CA26" t="inlineStr"/>
       <c r="CB26" t="inlineStr"/>
       <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3597,6 +3989,20 @@
       <c r="CA27" t="inlineStr"/>
       <c r="CB27" t="inlineStr"/>
       <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -3736,6 +4142,20 @@
       <c r="CA28" t="inlineStr"/>
       <c r="CB28" t="inlineStr"/>
       <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3877,6 +4297,20 @@
       <c r="CA29" t="inlineStr"/>
       <c r="CB29" t="inlineStr"/>
       <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -4020,6 +4454,20 @@
       <c r="CA30" t="inlineStr"/>
       <c r="CB30" t="inlineStr"/>
       <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -4165,6 +4613,20 @@
       <c r="CA31" t="inlineStr"/>
       <c r="CB31" t="inlineStr"/>
       <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -4312,6 +4774,20 @@
       <c r="CA32" t="inlineStr"/>
       <c r="CB32" t="inlineStr"/>
       <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -4461,6 +4937,20 @@
       <c r="CA33" t="inlineStr"/>
       <c r="CB33" t="inlineStr"/>
       <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -4612,6 +5102,20 @@
       <c r="CA34" t="inlineStr"/>
       <c r="CB34" t="inlineStr"/>
       <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -4765,6 +5269,20 @@
       <c r="CA35" t="inlineStr"/>
       <c r="CB35" t="inlineStr"/>
       <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -4920,6 +5438,20 @@
       <c r="CA36" t="inlineStr"/>
       <c r="CB36" t="inlineStr"/>
       <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -5077,6 +5609,20 @@
       <c r="CA37" t="inlineStr"/>
       <c r="CB37" t="inlineStr"/>
       <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -5236,6 +5782,20 @@
       <c r="CA38" t="inlineStr"/>
       <c r="CB38" t="inlineStr"/>
       <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -5397,6 +5957,20 @@
       <c r="CA39" t="inlineStr"/>
       <c r="CB39" t="inlineStr"/>
       <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr"/>
+      <c r="CQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -5560,6 +6134,20 @@
       <c r="CA40" t="inlineStr"/>
       <c r="CB40" t="inlineStr"/>
       <c r="CC40" t="inlineStr"/>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="inlineStr"/>
+      <c r="CJ40" t="inlineStr"/>
+      <c r="CK40" t="inlineStr"/>
+      <c r="CL40" t="inlineStr"/>
+      <c r="CM40" t="inlineStr"/>
+      <c r="CN40" t="inlineStr"/>
+      <c r="CO40" t="inlineStr"/>
+      <c r="CP40" t="inlineStr"/>
+      <c r="CQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -5725,6 +6313,20 @@
       <c r="CA41" t="inlineStr"/>
       <c r="CB41" t="inlineStr"/>
       <c r="CC41" t="inlineStr"/>
+      <c r="CD41" t="inlineStr"/>
+      <c r="CE41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
+      <c r="CG41" t="inlineStr"/>
+      <c r="CH41" t="inlineStr"/>
+      <c r="CI41" t="inlineStr"/>
+      <c r="CJ41" t="inlineStr"/>
+      <c r="CK41" t="inlineStr"/>
+      <c r="CL41" t="inlineStr"/>
+      <c r="CM41" t="inlineStr"/>
+      <c r="CN41" t="inlineStr"/>
+      <c r="CO41" t="inlineStr"/>
+      <c r="CP41" t="inlineStr"/>
+      <c r="CQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -5892,6 +6494,20 @@
       <c r="CA42" t="inlineStr"/>
       <c r="CB42" t="inlineStr"/>
       <c r="CC42" t="inlineStr"/>
+      <c r="CD42" t="inlineStr"/>
+      <c r="CE42" t="inlineStr"/>
+      <c r="CF42" t="inlineStr"/>
+      <c r="CG42" t="inlineStr"/>
+      <c r="CH42" t="inlineStr"/>
+      <c r="CI42" t="inlineStr"/>
+      <c r="CJ42" t="inlineStr"/>
+      <c r="CK42" t="inlineStr"/>
+      <c r="CL42" t="inlineStr"/>
+      <c r="CM42" t="inlineStr"/>
+      <c r="CN42" t="inlineStr"/>
+      <c r="CO42" t="inlineStr"/>
+      <c r="CP42" t="inlineStr"/>
+      <c r="CQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -6061,6 +6677,20 @@
       <c r="CA43" t="inlineStr"/>
       <c r="CB43" t="inlineStr"/>
       <c r="CC43" t="inlineStr"/>
+      <c r="CD43" t="inlineStr"/>
+      <c r="CE43" t="inlineStr"/>
+      <c r="CF43" t="inlineStr"/>
+      <c r="CG43" t="inlineStr"/>
+      <c r="CH43" t="inlineStr"/>
+      <c r="CI43" t="inlineStr"/>
+      <c r="CJ43" t="inlineStr"/>
+      <c r="CK43" t="inlineStr"/>
+      <c r="CL43" t="inlineStr"/>
+      <c r="CM43" t="inlineStr"/>
+      <c r="CN43" t="inlineStr"/>
+      <c r="CO43" t="inlineStr"/>
+      <c r="CP43" t="inlineStr"/>
+      <c r="CQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -6232,6 +6862,20 @@
       <c r="CA44" t="inlineStr"/>
       <c r="CB44" t="inlineStr"/>
       <c r="CC44" t="inlineStr"/>
+      <c r="CD44" t="inlineStr"/>
+      <c r="CE44" t="inlineStr"/>
+      <c r="CF44" t="inlineStr"/>
+      <c r="CG44" t="inlineStr"/>
+      <c r="CH44" t="inlineStr"/>
+      <c r="CI44" t="inlineStr"/>
+      <c r="CJ44" t="inlineStr"/>
+      <c r="CK44" t="inlineStr"/>
+      <c r="CL44" t="inlineStr"/>
+      <c r="CM44" t="inlineStr"/>
+      <c r="CN44" t="inlineStr"/>
+      <c r="CO44" t="inlineStr"/>
+      <c r="CP44" t="inlineStr"/>
+      <c r="CQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -6405,6 +7049,20 @@
       <c r="CA45" t="inlineStr"/>
       <c r="CB45" t="inlineStr"/>
       <c r="CC45" t="inlineStr"/>
+      <c r="CD45" t="inlineStr"/>
+      <c r="CE45" t="inlineStr"/>
+      <c r="CF45" t="inlineStr"/>
+      <c r="CG45" t="inlineStr"/>
+      <c r="CH45" t="inlineStr"/>
+      <c r="CI45" t="inlineStr"/>
+      <c r="CJ45" t="inlineStr"/>
+      <c r="CK45" t="inlineStr"/>
+      <c r="CL45" t="inlineStr"/>
+      <c r="CM45" t="inlineStr"/>
+      <c r="CN45" t="inlineStr"/>
+      <c r="CO45" t="inlineStr"/>
+      <c r="CP45" t="inlineStr"/>
+      <c r="CQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -6580,6 +7238,20 @@
       <c r="CA46" t="inlineStr"/>
       <c r="CB46" t="inlineStr"/>
       <c r="CC46" t="inlineStr"/>
+      <c r="CD46" t="inlineStr"/>
+      <c r="CE46" t="inlineStr"/>
+      <c r="CF46" t="inlineStr"/>
+      <c r="CG46" t="inlineStr"/>
+      <c r="CH46" t="inlineStr"/>
+      <c r="CI46" t="inlineStr"/>
+      <c r="CJ46" t="inlineStr"/>
+      <c r="CK46" t="inlineStr"/>
+      <c r="CL46" t="inlineStr"/>
+      <c r="CM46" t="inlineStr"/>
+      <c r="CN46" t="inlineStr"/>
+      <c r="CO46" t="inlineStr"/>
+      <c r="CP46" t="inlineStr"/>
+      <c r="CQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -6757,6 +7429,20 @@
       <c r="CA47" t="inlineStr"/>
       <c r="CB47" t="inlineStr"/>
       <c r="CC47" t="inlineStr"/>
+      <c r="CD47" t="inlineStr"/>
+      <c r="CE47" t="inlineStr"/>
+      <c r="CF47" t="inlineStr"/>
+      <c r="CG47" t="inlineStr"/>
+      <c r="CH47" t="inlineStr"/>
+      <c r="CI47" t="inlineStr"/>
+      <c r="CJ47" t="inlineStr"/>
+      <c r="CK47" t="inlineStr"/>
+      <c r="CL47" t="inlineStr"/>
+      <c r="CM47" t="inlineStr"/>
+      <c r="CN47" t="inlineStr"/>
+      <c r="CO47" t="inlineStr"/>
+      <c r="CP47" t="inlineStr"/>
+      <c r="CQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -6936,6 +7622,20 @@
       <c r="CA48" t="inlineStr"/>
       <c r="CB48" t="inlineStr"/>
       <c r="CC48" t="inlineStr"/>
+      <c r="CD48" t="inlineStr"/>
+      <c r="CE48" t="inlineStr"/>
+      <c r="CF48" t="inlineStr"/>
+      <c r="CG48" t="inlineStr"/>
+      <c r="CH48" t="inlineStr"/>
+      <c r="CI48" t="inlineStr"/>
+      <c r="CJ48" t="inlineStr"/>
+      <c r="CK48" t="inlineStr"/>
+      <c r="CL48" t="inlineStr"/>
+      <c r="CM48" t="inlineStr"/>
+      <c r="CN48" t="inlineStr"/>
+      <c r="CO48" t="inlineStr"/>
+      <c r="CP48" t="inlineStr"/>
+      <c r="CQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -7117,6 +7817,20 @@
       <c r="CA49" t="inlineStr"/>
       <c r="CB49" t="inlineStr"/>
       <c r="CC49" t="inlineStr"/>
+      <c r="CD49" t="inlineStr"/>
+      <c r="CE49" t="inlineStr"/>
+      <c r="CF49" t="inlineStr"/>
+      <c r="CG49" t="inlineStr"/>
+      <c r="CH49" t="inlineStr"/>
+      <c r="CI49" t="inlineStr"/>
+      <c r="CJ49" t="inlineStr"/>
+      <c r="CK49" t="inlineStr"/>
+      <c r="CL49" t="inlineStr"/>
+      <c r="CM49" t="inlineStr"/>
+      <c r="CN49" t="inlineStr"/>
+      <c r="CO49" t="inlineStr"/>
+      <c r="CP49" t="inlineStr"/>
+      <c r="CQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -7300,6 +8014,20 @@
       <c r="CA50" t="inlineStr"/>
       <c r="CB50" t="inlineStr"/>
       <c r="CC50" t="inlineStr"/>
+      <c r="CD50" t="inlineStr"/>
+      <c r="CE50" t="inlineStr"/>
+      <c r="CF50" t="inlineStr"/>
+      <c r="CG50" t="inlineStr"/>
+      <c r="CH50" t="inlineStr"/>
+      <c r="CI50" t="inlineStr"/>
+      <c r="CJ50" t="inlineStr"/>
+      <c r="CK50" t="inlineStr"/>
+      <c r="CL50" t="inlineStr"/>
+      <c r="CM50" t="inlineStr"/>
+      <c r="CN50" t="inlineStr"/>
+      <c r="CO50" t="inlineStr"/>
+      <c r="CP50" t="inlineStr"/>
+      <c r="CQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -7485,6 +8213,20 @@
       <c r="CA51" t="inlineStr"/>
       <c r="CB51" t="inlineStr"/>
       <c r="CC51" t="inlineStr"/>
+      <c r="CD51" t="inlineStr"/>
+      <c r="CE51" t="inlineStr"/>
+      <c r="CF51" t="inlineStr"/>
+      <c r="CG51" t="inlineStr"/>
+      <c r="CH51" t="inlineStr"/>
+      <c r="CI51" t="inlineStr"/>
+      <c r="CJ51" t="inlineStr"/>
+      <c r="CK51" t="inlineStr"/>
+      <c r="CL51" t="inlineStr"/>
+      <c r="CM51" t="inlineStr"/>
+      <c r="CN51" t="inlineStr"/>
+      <c r="CO51" t="inlineStr"/>
+      <c r="CP51" t="inlineStr"/>
+      <c r="CQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -7672,6 +8414,20 @@
       <c r="CA52" t="inlineStr"/>
       <c r="CB52" t="inlineStr"/>
       <c r="CC52" t="inlineStr"/>
+      <c r="CD52" t="inlineStr"/>
+      <c r="CE52" t="inlineStr"/>
+      <c r="CF52" t="inlineStr"/>
+      <c r="CG52" t="inlineStr"/>
+      <c r="CH52" t="inlineStr"/>
+      <c r="CI52" t="inlineStr"/>
+      <c r="CJ52" t="inlineStr"/>
+      <c r="CK52" t="inlineStr"/>
+      <c r="CL52" t="inlineStr"/>
+      <c r="CM52" t="inlineStr"/>
+      <c r="CN52" t="inlineStr"/>
+      <c r="CO52" t="inlineStr"/>
+      <c r="CP52" t="inlineStr"/>
+      <c r="CQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -7861,6 +8617,20 @@
       <c r="CA53" t="inlineStr"/>
       <c r="CB53" t="inlineStr"/>
       <c r="CC53" t="inlineStr"/>
+      <c r="CD53" t="inlineStr"/>
+      <c r="CE53" t="inlineStr"/>
+      <c r="CF53" t="inlineStr"/>
+      <c r="CG53" t="inlineStr"/>
+      <c r="CH53" t="inlineStr"/>
+      <c r="CI53" t="inlineStr"/>
+      <c r="CJ53" t="inlineStr"/>
+      <c r="CK53" t="inlineStr"/>
+      <c r="CL53" t="inlineStr"/>
+      <c r="CM53" t="inlineStr"/>
+      <c r="CN53" t="inlineStr"/>
+      <c r="CO53" t="inlineStr"/>
+      <c r="CP53" t="inlineStr"/>
+      <c r="CQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -8052,6 +8822,20 @@
       <c r="CA54" t="inlineStr"/>
       <c r="CB54" t="inlineStr"/>
       <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
+      <c r="CE54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
+      <c r="CG54" t="inlineStr"/>
+      <c r="CH54" t="inlineStr"/>
+      <c r="CI54" t="inlineStr"/>
+      <c r="CJ54" t="inlineStr"/>
+      <c r="CK54" t="inlineStr"/>
+      <c r="CL54" t="inlineStr"/>
+      <c r="CM54" t="inlineStr"/>
+      <c r="CN54" t="inlineStr"/>
+      <c r="CO54" t="inlineStr"/>
+      <c r="CP54" t="inlineStr"/>
+      <c r="CQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -8245,6 +9029,20 @@
       <c r="CA55" t="inlineStr"/>
       <c r="CB55" t="inlineStr"/>
       <c r="CC55" t="inlineStr"/>
+      <c r="CD55" t="inlineStr"/>
+      <c r="CE55" t="inlineStr"/>
+      <c r="CF55" t="inlineStr"/>
+      <c r="CG55" t="inlineStr"/>
+      <c r="CH55" t="inlineStr"/>
+      <c r="CI55" t="inlineStr"/>
+      <c r="CJ55" t="inlineStr"/>
+      <c r="CK55" t="inlineStr"/>
+      <c r="CL55" t="inlineStr"/>
+      <c r="CM55" t="inlineStr"/>
+      <c r="CN55" t="inlineStr"/>
+      <c r="CO55" t="inlineStr"/>
+      <c r="CP55" t="inlineStr"/>
+      <c r="CQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -8440,6 +9238,20 @@
       <c r="CA56" t="inlineStr"/>
       <c r="CB56" t="inlineStr"/>
       <c r="CC56" t="inlineStr"/>
+      <c r="CD56" t="inlineStr"/>
+      <c r="CE56" t="inlineStr"/>
+      <c r="CF56" t="inlineStr"/>
+      <c r="CG56" t="inlineStr"/>
+      <c r="CH56" t="inlineStr"/>
+      <c r="CI56" t="inlineStr"/>
+      <c r="CJ56" t="inlineStr"/>
+      <c r="CK56" t="inlineStr"/>
+      <c r="CL56" t="inlineStr"/>
+      <c r="CM56" t="inlineStr"/>
+      <c r="CN56" t="inlineStr"/>
+      <c r="CO56" t="inlineStr"/>
+      <c r="CP56" t="inlineStr"/>
+      <c r="CQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -8637,6 +9449,20 @@
       <c r="CA57" t="inlineStr"/>
       <c r="CB57" t="inlineStr"/>
       <c r="CC57" t="inlineStr"/>
+      <c r="CD57" t="inlineStr"/>
+      <c r="CE57" t="inlineStr"/>
+      <c r="CF57" t="inlineStr"/>
+      <c r="CG57" t="inlineStr"/>
+      <c r="CH57" t="inlineStr"/>
+      <c r="CI57" t="inlineStr"/>
+      <c r="CJ57" t="inlineStr"/>
+      <c r="CK57" t="inlineStr"/>
+      <c r="CL57" t="inlineStr"/>
+      <c r="CM57" t="inlineStr"/>
+      <c r="CN57" t="inlineStr"/>
+      <c r="CO57" t="inlineStr"/>
+      <c r="CP57" t="inlineStr"/>
+      <c r="CQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -8836,6 +9662,20 @@
       <c r="CA58" t="inlineStr"/>
       <c r="CB58" t="inlineStr"/>
       <c r="CC58" t="inlineStr"/>
+      <c r="CD58" t="inlineStr"/>
+      <c r="CE58" t="inlineStr"/>
+      <c r="CF58" t="inlineStr"/>
+      <c r="CG58" t="inlineStr"/>
+      <c r="CH58" t="inlineStr"/>
+      <c r="CI58" t="inlineStr"/>
+      <c r="CJ58" t="inlineStr"/>
+      <c r="CK58" t="inlineStr"/>
+      <c r="CL58" t="inlineStr"/>
+      <c r="CM58" t="inlineStr"/>
+      <c r="CN58" t="inlineStr"/>
+      <c r="CO58" t="inlineStr"/>
+      <c r="CP58" t="inlineStr"/>
+      <c r="CQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -9037,6 +9877,20 @@
       <c r="CA59" t="inlineStr"/>
       <c r="CB59" t="inlineStr"/>
       <c r="CC59" t="inlineStr"/>
+      <c r="CD59" t="inlineStr"/>
+      <c r="CE59" t="inlineStr"/>
+      <c r="CF59" t="inlineStr"/>
+      <c r="CG59" t="inlineStr"/>
+      <c r="CH59" t="inlineStr"/>
+      <c r="CI59" t="inlineStr"/>
+      <c r="CJ59" t="inlineStr"/>
+      <c r="CK59" t="inlineStr"/>
+      <c r="CL59" t="inlineStr"/>
+      <c r="CM59" t="inlineStr"/>
+      <c r="CN59" t="inlineStr"/>
+      <c r="CO59" t="inlineStr"/>
+      <c r="CP59" t="inlineStr"/>
+      <c r="CQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -9240,6 +10094,20 @@
       <c r="CA60" t="inlineStr"/>
       <c r="CB60" t="inlineStr"/>
       <c r="CC60" t="inlineStr"/>
+      <c r="CD60" t="inlineStr"/>
+      <c r="CE60" t="inlineStr"/>
+      <c r="CF60" t="inlineStr"/>
+      <c r="CG60" t="inlineStr"/>
+      <c r="CH60" t="inlineStr"/>
+      <c r="CI60" t="inlineStr"/>
+      <c r="CJ60" t="inlineStr"/>
+      <c r="CK60" t="inlineStr"/>
+      <c r="CL60" t="inlineStr"/>
+      <c r="CM60" t="inlineStr"/>
+      <c r="CN60" t="inlineStr"/>
+      <c r="CO60" t="inlineStr"/>
+      <c r="CP60" t="inlineStr"/>
+      <c r="CQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -9445,6 +10313,20 @@
       <c r="CA61" t="inlineStr"/>
       <c r="CB61" t="inlineStr"/>
       <c r="CC61" t="inlineStr"/>
+      <c r="CD61" t="inlineStr"/>
+      <c r="CE61" t="inlineStr"/>
+      <c r="CF61" t="inlineStr"/>
+      <c r="CG61" t="inlineStr"/>
+      <c r="CH61" t="inlineStr"/>
+      <c r="CI61" t="inlineStr"/>
+      <c r="CJ61" t="inlineStr"/>
+      <c r="CK61" t="inlineStr"/>
+      <c r="CL61" t="inlineStr"/>
+      <c r="CM61" t="inlineStr"/>
+      <c r="CN61" t="inlineStr"/>
+      <c r="CO61" t="inlineStr"/>
+      <c r="CP61" t="inlineStr"/>
+      <c r="CQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -9652,6 +10534,20 @@
       <c r="CA62" t="inlineStr"/>
       <c r="CB62" t="inlineStr"/>
       <c r="CC62" t="inlineStr"/>
+      <c r="CD62" t="inlineStr"/>
+      <c r="CE62" t="inlineStr"/>
+      <c r="CF62" t="inlineStr"/>
+      <c r="CG62" t="inlineStr"/>
+      <c r="CH62" t="inlineStr"/>
+      <c r="CI62" t="inlineStr"/>
+      <c r="CJ62" t="inlineStr"/>
+      <c r="CK62" t="inlineStr"/>
+      <c r="CL62" t="inlineStr"/>
+      <c r="CM62" t="inlineStr"/>
+      <c r="CN62" t="inlineStr"/>
+      <c r="CO62" t="inlineStr"/>
+      <c r="CP62" t="inlineStr"/>
+      <c r="CQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -9861,6 +10757,20 @@
       <c r="CA63" t="inlineStr"/>
       <c r="CB63" t="inlineStr"/>
       <c r="CC63" t="inlineStr"/>
+      <c r="CD63" t="inlineStr"/>
+      <c r="CE63" t="inlineStr"/>
+      <c r="CF63" t="inlineStr"/>
+      <c r="CG63" t="inlineStr"/>
+      <c r="CH63" t="inlineStr"/>
+      <c r="CI63" t="inlineStr"/>
+      <c r="CJ63" t="inlineStr"/>
+      <c r="CK63" t="inlineStr"/>
+      <c r="CL63" t="inlineStr"/>
+      <c r="CM63" t="inlineStr"/>
+      <c r="CN63" t="inlineStr"/>
+      <c r="CO63" t="inlineStr"/>
+      <c r="CP63" t="inlineStr"/>
+      <c r="CQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -10072,6 +10982,20 @@
       <c r="CA64" t="inlineStr"/>
       <c r="CB64" t="inlineStr"/>
       <c r="CC64" t="inlineStr"/>
+      <c r="CD64" t="inlineStr"/>
+      <c r="CE64" t="inlineStr"/>
+      <c r="CF64" t="inlineStr"/>
+      <c r="CG64" t="inlineStr"/>
+      <c r="CH64" t="inlineStr"/>
+      <c r="CI64" t="inlineStr"/>
+      <c r="CJ64" t="inlineStr"/>
+      <c r="CK64" t="inlineStr"/>
+      <c r="CL64" t="inlineStr"/>
+      <c r="CM64" t="inlineStr"/>
+      <c r="CN64" t="inlineStr"/>
+      <c r="CO64" t="inlineStr"/>
+      <c r="CP64" t="inlineStr"/>
+      <c r="CQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -10285,6 +11209,20 @@
       <c r="CA65" t="inlineStr"/>
       <c r="CB65" t="inlineStr"/>
       <c r="CC65" t="inlineStr"/>
+      <c r="CD65" t="inlineStr"/>
+      <c r="CE65" t="inlineStr"/>
+      <c r="CF65" t="inlineStr"/>
+      <c r="CG65" t="inlineStr"/>
+      <c r="CH65" t="inlineStr"/>
+      <c r="CI65" t="inlineStr"/>
+      <c r="CJ65" t="inlineStr"/>
+      <c r="CK65" t="inlineStr"/>
+      <c r="CL65" t="inlineStr"/>
+      <c r="CM65" t="inlineStr"/>
+      <c r="CN65" t="inlineStr"/>
+      <c r="CO65" t="inlineStr"/>
+      <c r="CP65" t="inlineStr"/>
+      <c r="CQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -10500,6 +11438,20 @@
       <c r="CA66" t="inlineStr"/>
       <c r="CB66" t="inlineStr"/>
       <c r="CC66" t="inlineStr"/>
+      <c r="CD66" t="inlineStr"/>
+      <c r="CE66" t="inlineStr"/>
+      <c r="CF66" t="inlineStr"/>
+      <c r="CG66" t="inlineStr"/>
+      <c r="CH66" t="inlineStr"/>
+      <c r="CI66" t="inlineStr"/>
+      <c r="CJ66" t="inlineStr"/>
+      <c r="CK66" t="inlineStr"/>
+      <c r="CL66" t="inlineStr"/>
+      <c r="CM66" t="inlineStr"/>
+      <c r="CN66" t="inlineStr"/>
+      <c r="CO66" t="inlineStr"/>
+      <c r="CP66" t="inlineStr"/>
+      <c r="CQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -10717,6 +11669,20 @@
       <c r="CA67" t="inlineStr"/>
       <c r="CB67" t="inlineStr"/>
       <c r="CC67" t="inlineStr"/>
+      <c r="CD67" t="inlineStr"/>
+      <c r="CE67" t="inlineStr"/>
+      <c r="CF67" t="inlineStr"/>
+      <c r="CG67" t="inlineStr"/>
+      <c r="CH67" t="inlineStr"/>
+      <c r="CI67" t="inlineStr"/>
+      <c r="CJ67" t="inlineStr"/>
+      <c r="CK67" t="inlineStr"/>
+      <c r="CL67" t="inlineStr"/>
+      <c r="CM67" t="inlineStr"/>
+      <c r="CN67" t="inlineStr"/>
+      <c r="CO67" t="inlineStr"/>
+      <c r="CP67" t="inlineStr"/>
+      <c r="CQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -10936,6 +11902,20 @@
       <c r="CA68" t="inlineStr"/>
       <c r="CB68" t="inlineStr"/>
       <c r="CC68" t="inlineStr"/>
+      <c r="CD68" t="inlineStr"/>
+      <c r="CE68" t="inlineStr"/>
+      <c r="CF68" t="inlineStr"/>
+      <c r="CG68" t="inlineStr"/>
+      <c r="CH68" t="inlineStr"/>
+      <c r="CI68" t="inlineStr"/>
+      <c r="CJ68" t="inlineStr"/>
+      <c r="CK68" t="inlineStr"/>
+      <c r="CL68" t="inlineStr"/>
+      <c r="CM68" t="inlineStr"/>
+      <c r="CN68" t="inlineStr"/>
+      <c r="CO68" t="inlineStr"/>
+      <c r="CP68" t="inlineStr"/>
+      <c r="CQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -11157,6 +12137,20 @@
       <c r="CA69" t="inlineStr"/>
       <c r="CB69" t="inlineStr"/>
       <c r="CC69" t="inlineStr"/>
+      <c r="CD69" t="inlineStr"/>
+      <c r="CE69" t="inlineStr"/>
+      <c r="CF69" t="inlineStr"/>
+      <c r="CG69" t="inlineStr"/>
+      <c r="CH69" t="inlineStr"/>
+      <c r="CI69" t="inlineStr"/>
+      <c r="CJ69" t="inlineStr"/>
+      <c r="CK69" t="inlineStr"/>
+      <c r="CL69" t="inlineStr"/>
+      <c r="CM69" t="inlineStr"/>
+      <c r="CN69" t="inlineStr"/>
+      <c r="CO69" t="inlineStr"/>
+      <c r="CP69" t="inlineStr"/>
+      <c r="CQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -11380,6 +12374,20 @@
       <c r="CA70" t="inlineStr"/>
       <c r="CB70" t="inlineStr"/>
       <c r="CC70" t="inlineStr"/>
+      <c r="CD70" t="inlineStr"/>
+      <c r="CE70" t="inlineStr"/>
+      <c r="CF70" t="inlineStr"/>
+      <c r="CG70" t="inlineStr"/>
+      <c r="CH70" t="inlineStr"/>
+      <c r="CI70" t="inlineStr"/>
+      <c r="CJ70" t="inlineStr"/>
+      <c r="CK70" t="inlineStr"/>
+      <c r="CL70" t="inlineStr"/>
+      <c r="CM70" t="inlineStr"/>
+      <c r="CN70" t="inlineStr"/>
+      <c r="CO70" t="inlineStr"/>
+      <c r="CP70" t="inlineStr"/>
+      <c r="CQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -11605,6 +12613,20 @@
       <c r="CA71" t="inlineStr"/>
       <c r="CB71" t="inlineStr"/>
       <c r="CC71" t="inlineStr"/>
+      <c r="CD71" t="inlineStr"/>
+      <c r="CE71" t="inlineStr"/>
+      <c r="CF71" t="inlineStr"/>
+      <c r="CG71" t="inlineStr"/>
+      <c r="CH71" t="inlineStr"/>
+      <c r="CI71" t="inlineStr"/>
+      <c r="CJ71" t="inlineStr"/>
+      <c r="CK71" t="inlineStr"/>
+      <c r="CL71" t="inlineStr"/>
+      <c r="CM71" t="inlineStr"/>
+      <c r="CN71" t="inlineStr"/>
+      <c r="CO71" t="inlineStr"/>
+      <c r="CP71" t="inlineStr"/>
+      <c r="CQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -11832,6 +12854,20 @@
       <c r="CA72" t="inlineStr"/>
       <c r="CB72" t="inlineStr"/>
       <c r="CC72" t="inlineStr"/>
+      <c r="CD72" t="inlineStr"/>
+      <c r="CE72" t="inlineStr"/>
+      <c r="CF72" t="inlineStr"/>
+      <c r="CG72" t="inlineStr"/>
+      <c r="CH72" t="inlineStr"/>
+      <c r="CI72" t="inlineStr"/>
+      <c r="CJ72" t="inlineStr"/>
+      <c r="CK72" t="inlineStr"/>
+      <c r="CL72" t="inlineStr"/>
+      <c r="CM72" t="inlineStr"/>
+      <c r="CN72" t="inlineStr"/>
+      <c r="CO72" t="inlineStr"/>
+      <c r="CP72" t="inlineStr"/>
+      <c r="CQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -12061,6 +13097,20 @@
       <c r="CA73" t="inlineStr"/>
       <c r="CB73" t="inlineStr"/>
       <c r="CC73" t="inlineStr"/>
+      <c r="CD73" t="inlineStr"/>
+      <c r="CE73" t="inlineStr"/>
+      <c r="CF73" t="inlineStr"/>
+      <c r="CG73" t="inlineStr"/>
+      <c r="CH73" t="inlineStr"/>
+      <c r="CI73" t="inlineStr"/>
+      <c r="CJ73" t="inlineStr"/>
+      <c r="CK73" t="inlineStr"/>
+      <c r="CL73" t="inlineStr"/>
+      <c r="CM73" t="inlineStr"/>
+      <c r="CN73" t="inlineStr"/>
+      <c r="CO73" t="inlineStr"/>
+      <c r="CP73" t="inlineStr"/>
+      <c r="CQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -12292,6 +13342,20 @@
       <c r="CA74" t="inlineStr"/>
       <c r="CB74" t="inlineStr"/>
       <c r="CC74" t="inlineStr"/>
+      <c r="CD74" t="inlineStr"/>
+      <c r="CE74" t="inlineStr"/>
+      <c r="CF74" t="inlineStr"/>
+      <c r="CG74" t="inlineStr"/>
+      <c r="CH74" t="inlineStr"/>
+      <c r="CI74" t="inlineStr"/>
+      <c r="CJ74" t="inlineStr"/>
+      <c r="CK74" t="inlineStr"/>
+      <c r="CL74" t="inlineStr"/>
+      <c r="CM74" t="inlineStr"/>
+      <c r="CN74" t="inlineStr"/>
+      <c r="CO74" t="inlineStr"/>
+      <c r="CP74" t="inlineStr"/>
+      <c r="CQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -12525,6 +13589,20 @@
       <c r="CA75" t="inlineStr"/>
       <c r="CB75" t="inlineStr"/>
       <c r="CC75" t="inlineStr"/>
+      <c r="CD75" t="inlineStr"/>
+      <c r="CE75" t="inlineStr"/>
+      <c r="CF75" t="inlineStr"/>
+      <c r="CG75" t="inlineStr"/>
+      <c r="CH75" t="inlineStr"/>
+      <c r="CI75" t="inlineStr"/>
+      <c r="CJ75" t="inlineStr"/>
+      <c r="CK75" t="inlineStr"/>
+      <c r="CL75" t="inlineStr"/>
+      <c r="CM75" t="inlineStr"/>
+      <c r="CN75" t="inlineStr"/>
+      <c r="CO75" t="inlineStr"/>
+      <c r="CP75" t="inlineStr"/>
+      <c r="CQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -12760,6 +13838,20 @@
       <c r="CA76" t="inlineStr"/>
       <c r="CB76" t="inlineStr"/>
       <c r="CC76" t="inlineStr"/>
+      <c r="CD76" t="inlineStr"/>
+      <c r="CE76" t="inlineStr"/>
+      <c r="CF76" t="inlineStr"/>
+      <c r="CG76" t="inlineStr"/>
+      <c r="CH76" t="inlineStr"/>
+      <c r="CI76" t="inlineStr"/>
+      <c r="CJ76" t="inlineStr"/>
+      <c r="CK76" t="inlineStr"/>
+      <c r="CL76" t="inlineStr"/>
+      <c r="CM76" t="inlineStr"/>
+      <c r="CN76" t="inlineStr"/>
+      <c r="CO76" t="inlineStr"/>
+      <c r="CP76" t="inlineStr"/>
+      <c r="CQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -12997,6 +14089,20 @@
       <c r="CA77" t="inlineStr"/>
       <c r="CB77" t="inlineStr"/>
       <c r="CC77" t="inlineStr"/>
+      <c r="CD77" t="inlineStr"/>
+      <c r="CE77" t="inlineStr"/>
+      <c r="CF77" t="inlineStr"/>
+      <c r="CG77" t="inlineStr"/>
+      <c r="CH77" t="inlineStr"/>
+      <c r="CI77" t="inlineStr"/>
+      <c r="CJ77" t="inlineStr"/>
+      <c r="CK77" t="inlineStr"/>
+      <c r="CL77" t="inlineStr"/>
+      <c r="CM77" t="inlineStr"/>
+      <c r="CN77" t="inlineStr"/>
+      <c r="CO77" t="inlineStr"/>
+      <c r="CP77" t="inlineStr"/>
+      <c r="CQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -13236,6 +14342,20 @@
       <c r="CA78" t="inlineStr"/>
       <c r="CB78" t="inlineStr"/>
       <c r="CC78" t="inlineStr"/>
+      <c r="CD78" t="inlineStr"/>
+      <c r="CE78" t="inlineStr"/>
+      <c r="CF78" t="inlineStr"/>
+      <c r="CG78" t="inlineStr"/>
+      <c r="CH78" t="inlineStr"/>
+      <c r="CI78" t="inlineStr"/>
+      <c r="CJ78" t="inlineStr"/>
+      <c r="CK78" t="inlineStr"/>
+      <c r="CL78" t="inlineStr"/>
+      <c r="CM78" t="inlineStr"/>
+      <c r="CN78" t="inlineStr"/>
+      <c r="CO78" t="inlineStr"/>
+      <c r="CP78" t="inlineStr"/>
+      <c r="CQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -13477,6 +14597,20 @@
       </c>
       <c r="CB79" t="inlineStr"/>
       <c r="CC79" t="inlineStr"/>
+      <c r="CD79" t="inlineStr"/>
+      <c r="CE79" t="inlineStr"/>
+      <c r="CF79" t="inlineStr"/>
+      <c r="CG79" t="inlineStr"/>
+      <c r="CH79" t="inlineStr"/>
+      <c r="CI79" t="inlineStr"/>
+      <c r="CJ79" t="inlineStr"/>
+      <c r="CK79" t="inlineStr"/>
+      <c r="CL79" t="inlineStr"/>
+      <c r="CM79" t="inlineStr"/>
+      <c r="CN79" t="inlineStr"/>
+      <c r="CO79" t="inlineStr"/>
+      <c r="CP79" t="inlineStr"/>
+      <c r="CQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -13720,6 +14854,20 @@
         <v>0.97273</v>
       </c>
       <c r="CC80" t="inlineStr"/>
+      <c r="CD80" t="inlineStr"/>
+      <c r="CE80" t="inlineStr"/>
+      <c r="CF80" t="inlineStr"/>
+      <c r="CG80" t="inlineStr"/>
+      <c r="CH80" t="inlineStr"/>
+      <c r="CI80" t="inlineStr"/>
+      <c r="CJ80" t="inlineStr"/>
+      <c r="CK80" t="inlineStr"/>
+      <c r="CL80" t="inlineStr"/>
+      <c r="CM80" t="inlineStr"/>
+      <c r="CN80" t="inlineStr"/>
+      <c r="CO80" t="inlineStr"/>
+      <c r="CP80" t="inlineStr"/>
+      <c r="CQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -13965,6 +15113,20 @@
       <c r="CC81" t="n">
         <v>0.83636</v>
       </c>
+      <c r="CD81" t="inlineStr"/>
+      <c r="CE81" t="inlineStr"/>
+      <c r="CF81" t="inlineStr"/>
+      <c r="CG81" t="inlineStr"/>
+      <c r="CH81" t="inlineStr"/>
+      <c r="CI81" t="inlineStr"/>
+      <c r="CJ81" t="inlineStr"/>
+      <c r="CK81" t="inlineStr"/>
+      <c r="CL81" t="inlineStr"/>
+      <c r="CM81" t="inlineStr"/>
+      <c r="CN81" t="inlineStr"/>
+      <c r="CO81" t="inlineStr"/>
+      <c r="CP81" t="inlineStr"/>
+      <c r="CQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -14210,6 +15372,22 @@
       <c r="CC82" t="n">
         <v>0.7545500000000001</v>
       </c>
+      <c r="CD82" t="n">
+        <v>0.79091</v>
+      </c>
+      <c r="CE82" t="inlineStr"/>
+      <c r="CF82" t="inlineStr"/>
+      <c r="CG82" t="inlineStr"/>
+      <c r="CH82" t="inlineStr"/>
+      <c r="CI82" t="inlineStr"/>
+      <c r="CJ82" t="inlineStr"/>
+      <c r="CK82" t="inlineStr"/>
+      <c r="CL82" t="inlineStr"/>
+      <c r="CM82" t="inlineStr"/>
+      <c r="CN82" t="inlineStr"/>
+      <c r="CO82" t="inlineStr"/>
+      <c r="CP82" t="inlineStr"/>
+      <c r="CQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -14455,6 +15633,24 @@
       <c r="CC83" t="n">
         <v>0.77982</v>
       </c>
+      <c r="CD83" t="n">
+        <v>0.77064</v>
+      </c>
+      <c r="CE83" t="n">
+        <v>0.77064</v>
+      </c>
+      <c r="CF83" t="inlineStr"/>
+      <c r="CG83" t="inlineStr"/>
+      <c r="CH83" t="inlineStr"/>
+      <c r="CI83" t="inlineStr"/>
+      <c r="CJ83" t="inlineStr"/>
+      <c r="CK83" t="inlineStr"/>
+      <c r="CL83" t="inlineStr"/>
+      <c r="CM83" t="inlineStr"/>
+      <c r="CN83" t="inlineStr"/>
+      <c r="CO83" t="inlineStr"/>
+      <c r="CP83" t="inlineStr"/>
+      <c r="CQ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -14700,6 +15896,26 @@
       <c r="CC84" t="n">
         <v>0.73394</v>
       </c>
+      <c r="CD84" t="n">
+        <v>0.73394</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>0.77064</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>0.79817</v>
+      </c>
+      <c r="CG84" t="inlineStr"/>
+      <c r="CH84" t="inlineStr"/>
+      <c r="CI84" t="inlineStr"/>
+      <c r="CJ84" t="inlineStr"/>
+      <c r="CK84" t="inlineStr"/>
+      <c r="CL84" t="inlineStr"/>
+      <c r="CM84" t="inlineStr"/>
+      <c r="CN84" t="inlineStr"/>
+      <c r="CO84" t="inlineStr"/>
+      <c r="CP84" t="inlineStr"/>
+      <c r="CQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -14945,6 +16161,28 @@
       <c r="CC85" t="n">
         <v>0.55455</v>
       </c>
+      <c r="CD85" t="n">
+        <v>0.56364</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>0.55455</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>0.55455</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>0.58182</v>
+      </c>
+      <c r="CH85" t="inlineStr"/>
+      <c r="CI85" t="inlineStr"/>
+      <c r="CJ85" t="inlineStr"/>
+      <c r="CK85" t="inlineStr"/>
+      <c r="CL85" t="inlineStr"/>
+      <c r="CM85" t="inlineStr"/>
+      <c r="CN85" t="inlineStr"/>
+      <c r="CO85" t="inlineStr"/>
+      <c r="CP85" t="inlineStr"/>
+      <c r="CQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -15190,6 +16428,30 @@
       <c r="CC86" t="n">
         <v>0.70796</v>
       </c>
+      <c r="CD86" t="n">
+        <v>0.73451</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>0.74336</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>0.77876</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>0.81416</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>0.84071</v>
+      </c>
+      <c r="CI86" t="inlineStr"/>
+      <c r="CJ86" t="inlineStr"/>
+      <c r="CK86" t="inlineStr"/>
+      <c r="CL86" t="inlineStr"/>
+      <c r="CM86" t="inlineStr"/>
+      <c r="CN86" t="inlineStr"/>
+      <c r="CO86" t="inlineStr"/>
+      <c r="CP86" t="inlineStr"/>
+      <c r="CQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -15435,6 +16697,32 @@
       <c r="CC87" t="n">
         <v>0.73451</v>
       </c>
+      <c r="CD87" t="n">
+        <v>0.76991</v>
+      </c>
+      <c r="CE87" t="n">
+        <v>0.78761</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>0.80531</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>0.80531</v>
+      </c>
+      <c r="CH87" t="n">
+        <v>0.84071</v>
+      </c>
+      <c r="CI87" t="n">
+        <v>0.85841</v>
+      </c>
+      <c r="CJ87" t="inlineStr"/>
+      <c r="CK87" t="inlineStr"/>
+      <c r="CL87" t="inlineStr"/>
+      <c r="CM87" t="inlineStr"/>
+      <c r="CN87" t="inlineStr"/>
+      <c r="CO87" t="inlineStr"/>
+      <c r="CP87" t="inlineStr"/>
+      <c r="CQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -15680,6 +16968,34 @@
       <c r="CC88" t="n">
         <v>0.91228</v>
       </c>
+      <c r="CD88" t="n">
+        <v>0.91228</v>
+      </c>
+      <c r="CE88" t="n">
+        <v>0.92105</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>0.92105</v>
+      </c>
+      <c r="CG88" t="n">
+        <v>0.92982</v>
+      </c>
+      <c r="CH88" t="n">
+        <v>0.94737</v>
+      </c>
+      <c r="CI88" t="n">
+        <v>0.95614</v>
+      </c>
+      <c r="CJ88" t="n">
+        <v>0.95614</v>
+      </c>
+      <c r="CK88" t="inlineStr"/>
+      <c r="CL88" t="inlineStr"/>
+      <c r="CM88" t="inlineStr"/>
+      <c r="CN88" t="inlineStr"/>
+      <c r="CO88" t="inlineStr"/>
+      <c r="CP88" t="inlineStr"/>
+      <c r="CQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -15925,6 +17241,36 @@
       <c r="CC89" t="n">
         <v>0.96522</v>
       </c>
+      <c r="CD89" t="n">
+        <v>0.96522</v>
+      </c>
+      <c r="CE89" t="n">
+        <v>0.95652</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>0.95652</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>0.96522</v>
+      </c>
+      <c r="CH89" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="CI89" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>0.98261</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>0.9739100000000001</v>
+      </c>
+      <c r="CL89" t="inlineStr"/>
+      <c r="CM89" t="inlineStr"/>
+      <c r="CN89" t="inlineStr"/>
+      <c r="CO89" t="inlineStr"/>
+      <c r="CP89" t="inlineStr"/>
+      <c r="CQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -16170,6 +17516,38 @@
       <c r="CC90" t="n">
         <v>0.9912300000000001</v>
       </c>
+      <c r="CD90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CE90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CF90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CG90" t="n">
+        <v>0.98246</v>
+      </c>
+      <c r="CH90" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>0.98246</v>
+      </c>
+      <c r="CK90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CL90" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CM90" t="inlineStr"/>
+      <c r="CN90" t="inlineStr"/>
+      <c r="CO90" t="inlineStr"/>
+      <c r="CP90" t="inlineStr"/>
+      <c r="CQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -16415,6 +17793,40 @@
       <c r="CC91" t="n">
         <v>0.59649</v>
       </c>
+      <c r="CD91" t="n">
+        <v>0.61404</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>0.68421</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>0.70175</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>0.68421</v>
+      </c>
+      <c r="CH91" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="CI91" t="n">
+        <v>0.7193000000000001</v>
+      </c>
+      <c r="CJ91" t="n">
+        <v>0.80702</v>
+      </c>
+      <c r="CK91" t="n">
+        <v>0.85965</v>
+      </c>
+      <c r="CL91" t="n">
+        <v>0.96491</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>0.9912300000000001</v>
+      </c>
+      <c r="CN91" t="inlineStr"/>
+      <c r="CO91" t="inlineStr"/>
+      <c r="CP91" t="inlineStr"/>
+      <c r="CQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -16576,6 +17988,42 @@
       <c r="CC92" t="n">
         <v>0.28696</v>
       </c>
+      <c r="CD92" t="n">
+        <v>0.32174</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>0.38261</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>0.4087</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>0.46087</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>0.46957</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>0.47826</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>0.5130400000000001</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>0.58261</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>0.6087</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>0.66087</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>0.72174</v>
+      </c>
+      <c r="CO92" t="inlineStr"/>
+      <c r="CP92" t="inlineStr"/>
+      <c r="CQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -16821,6 +18269,44 @@
       <c r="CC93" t="n">
         <v>0.37391</v>
       </c>
+      <c r="CD93" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>0.40351</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0.41228</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>0.42105</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>0.46491</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>0.48246</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>0.5087699999999999</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>0.51754</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>0.51754</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>0.57018</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>0.62281</v>
+      </c>
+      <c r="CO93" t="n">
+        <v>0.6902700000000001</v>
+      </c>
+      <c r="CP93" t="inlineStr"/>
+      <c r="CQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -17066,6 +18552,46 @@
       <c r="CC94" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD94" t="n">
+        <v>0.41739</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>0.45614</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>0.46491</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>0.48246</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>0.52632</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>0.54386</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>0.57895</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>0.60526</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>0.64035</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>0.76106</v>
+      </c>
+      <c r="CQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -17311,6 +18837,48 @@
       <c r="CC95" t="n">
         <v>0.38053</v>
       </c>
+      <c r="CD95" t="n">
+        <v>0.40708</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>0.45536</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>0.46429</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>0.46429</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>0.53571</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>0.54464</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>0.55357</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>0.55357</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>0.55357</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>0.57143</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>0.57143</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>0.60714</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>0.61947</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -17556,6 +19124,48 @@
       <c r="CC96" t="n">
         <v>0.30088</v>
       </c>
+      <c r="CD96" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CE96" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>0.42478</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>0.46018</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>0.46018</v>
+      </c>
+      <c r="CM96" t="n">
+        <v>0.49558</v>
+      </c>
+      <c r="CN96" t="n">
+        <v>0.49558</v>
+      </c>
+      <c r="CO96" t="n">
+        <v>0.50442</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>0.54867</v>
+      </c>
+      <c r="CQ96" t="n">
+        <v>0.5913</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -17801,6 +19411,48 @@
       <c r="CC97" t="n">
         <v>0.51786</v>
       </c>
+      <c r="CD97" t="n">
+        <v>0.52679</v>
+      </c>
+      <c r="CE97" t="n">
+        <v>0.52679</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="CG97" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="CH97" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="CI97" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>0.54464</v>
+      </c>
+      <c r="CL97" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="CM97" t="n">
+        <v>0.57522</v>
+      </c>
+      <c r="CN97" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="CO97" t="n">
+        <v>0.63717</v>
+      </c>
+      <c r="CP97" t="n">
+        <v>0.67257</v>
+      </c>
+      <c r="CQ97" t="n">
+        <v>0.7193000000000001</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -18046,6 +19698,48 @@
       <c r="CC98" t="n">
         <v>0.50893</v>
       </c>
+      <c r="CD98" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="CE98" t="n">
+        <v>0.52679</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="CG98" t="n">
+        <v>0.53571</v>
+      </c>
+      <c r="CH98" t="n">
+        <v>0.53571</v>
+      </c>
+      <c r="CI98" t="n">
+        <v>0.58036</v>
+      </c>
+      <c r="CJ98" t="n">
+        <v>0.58036</v>
+      </c>
+      <c r="CK98" t="n">
+        <v>0.57143</v>
+      </c>
+      <c r="CL98" t="n">
+        <v>0.58929</v>
+      </c>
+      <c r="CM98" t="n">
+        <v>0.58929</v>
+      </c>
+      <c r="CN98" t="n">
+        <v>0.60714</v>
+      </c>
+      <c r="CO98" t="n">
+        <v>0.66071</v>
+      </c>
+      <c r="CP98" t="n">
+        <v>0.67857</v>
+      </c>
+      <c r="CQ98" t="n">
+        <v>0.73451</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -18291,6 +19985,48 @@
       <c r="CC99" t="n">
         <v>0.15929</v>
       </c>
+      <c r="CD99" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CE99" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CG99" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CH99" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CI99" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CJ99" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CK99" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CL99" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CM99" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CN99" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CO99" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CP99" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CQ99" t="n">
+        <v>0.32456</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -18536,6 +20272,48 @@
       <c r="CC100" t="n">
         <v>0.18584</v>
       </c>
+      <c r="CD100" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CE100" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CF100" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CG100" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CH100" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CI100" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CK100" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CL100" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CM100" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CN100" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CO100" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CP100" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CQ100" t="n">
+        <v>0.32456</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -18781,6 +20559,48 @@
       <c r="CC101" t="n">
         <v>0.23894</v>
       </c>
+      <c r="CD101" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CE101" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CG101" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CH101" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CI101" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CJ101" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CK101" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CL101" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CM101" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CN101" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CO101" t="n">
+        <v>0.40708</v>
+      </c>
+      <c r="CP101" t="n">
+        <v>0.44248</v>
+      </c>
+      <c r="CQ101" t="n">
+        <v>0.48246</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -19026,6 +20846,48 @@
       <c r="CC102" t="n">
         <v>0.23009</v>
       </c>
+      <c r="CD102" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CE102" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CF102" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CG102" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CH102" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CI102" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CJ102" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CK102" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CL102" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CM102" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CN102" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CO102" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CP102" t="n">
+        <v>0.46018</v>
+      </c>
+      <c r="CQ102" t="n">
+        <v>0.49123</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -19271,6 +21133,48 @@
       <c r="CC103" t="n">
         <v>0.23009</v>
       </c>
+      <c r="CD103" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CE103" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CG103" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CH103" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CI103" t="n">
+        <v>0.28319</v>
+      </c>
+      <c r="CJ103" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CK103" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CL103" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CM103" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CN103" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CO103" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="CP103" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="CQ103" t="n">
+        <v>0.38596</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -19516,6 +21420,48 @@
       <c r="CC104" t="n">
         <v>0.46903</v>
       </c>
+      <c r="CD104" t="n">
+        <v>0.48673</v>
+      </c>
+      <c r="CE104" t="n">
+        <v>0.49558</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>0.5309700000000001</v>
+      </c>
+      <c r="CG104" t="n">
+        <v>0.53982</v>
+      </c>
+      <c r="CH104" t="n">
+        <v>0.55752</v>
+      </c>
+      <c r="CI104" t="n">
+        <v>0.56637</v>
+      </c>
+      <c r="CJ104" t="n">
+        <v>0.58407</v>
+      </c>
+      <c r="CK104" t="n">
+        <v>0.60177</v>
+      </c>
+      <c r="CL104" t="n">
+        <v>0.62832</v>
+      </c>
+      <c r="CM104" t="n">
+        <v>0.62832</v>
+      </c>
+      <c r="CN104" t="n">
+        <v>0.63717</v>
+      </c>
+      <c r="CO104" t="n">
+        <v>0.65487</v>
+      </c>
+      <c r="CP104" t="n">
+        <v>0.67257</v>
+      </c>
+      <c r="CQ104" t="n">
+        <v>0.67544</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -19761,6 +21707,48 @@
       <c r="CC105" t="n">
         <v>0.48673</v>
       </c>
+      <c r="CD105" t="n">
+        <v>0.49558</v>
+      </c>
+      <c r="CE105" t="n">
+        <v>0.50442</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>0.53982</v>
+      </c>
+      <c r="CG105" t="n">
+        <v>0.54867</v>
+      </c>
+      <c r="CH105" t="n">
+        <v>0.57522</v>
+      </c>
+      <c r="CI105" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="CJ105" t="n">
+        <v>0.6106200000000001</v>
+      </c>
+      <c r="CK105" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CL105" t="n">
+        <v>0.65487</v>
+      </c>
+      <c r="CM105" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CN105" t="n">
+        <v>0.68142</v>
+      </c>
+      <c r="CO105" t="n">
+        <v>0.6902700000000001</v>
+      </c>
+      <c r="CP105" t="n">
+        <v>0.7168099999999999</v>
+      </c>
+      <c r="CQ105" t="n">
+        <v>0.71053</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -20006,6 +21994,48 @@
       <c r="CC106" t="n">
         <v>0.20175</v>
       </c>
+      <c r="CD106" t="n">
+        <v>0.20175</v>
+      </c>
+      <c r="CE106" t="n">
+        <v>0.21053</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>0.2193</v>
+      </c>
+      <c r="CG106" t="n">
+        <v>0.2193</v>
+      </c>
+      <c r="CH106" t="n">
+        <v>0.22807</v>
+      </c>
+      <c r="CI106" t="n">
+        <v>0.24561</v>
+      </c>
+      <c r="CJ106" t="n">
+        <v>0.25439</v>
+      </c>
+      <c r="CK106" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="CL106" t="n">
+        <v>0.26316</v>
+      </c>
+      <c r="CM106" t="n">
+        <v>0.2807</v>
+      </c>
+      <c r="CN106" t="n">
+        <v>0.28947</v>
+      </c>
+      <c r="CO106" t="n">
+        <v>0.28947</v>
+      </c>
+      <c r="CP106" t="n">
+        <v>0.32456</v>
+      </c>
+      <c r="CQ106" t="n">
+        <v>0.32174</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -20251,6 +22281,48 @@
       <c r="CC107" t="n">
         <v>0.39823</v>
       </c>
+      <c r="CD107" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>0.40708</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>0.40708</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>0.42478</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>0.46903</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>0.46903</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>0.46903</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>0.47788</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>0.48673</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>0.52212</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>0.54867</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>0.57018</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -20496,6 +22568,48 @@
       <c r="CC108" t="n">
         <v>0.25664</v>
       </c>
+      <c r="CD108" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>0.27434</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>0.44248</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>0.45614</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -20741,6 +22855,48 @@
       <c r="CC109" t="n">
         <v>0.33628</v>
       </c>
+      <c r="CD109" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>0.37168</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>0.40708</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>0.42478</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>0.44248</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>0.45133</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>0.48673</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>0.52212</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>0.57018</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -20986,6 +23142,48 @@
       <c r="CC110" t="n">
         <v>0.30088</v>
       </c>
+      <c r="CD110" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>0.43363</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>0.45614</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -21231,6 +23429,48 @@
       <c r="CC111" t="n">
         <v>0.36607</v>
       </c>
+      <c r="CD111" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>0.41441</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>0.42342</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>0.43243</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>0.45045</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>0.45536</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -21475,6 +23715,48 @@
       </c>
       <c r="CC112" t="n">
         <v>0.30088</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>0.36283</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="113">
@@ -21655,6 +23937,48 @@
       <c r="CC113" t="n">
         <v>0.0885</v>
       </c>
+      <c r="CD113" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>0.12613</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>0.13514</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>0.13514</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>0.13514</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>0.15315</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -21900,6 +24224,48 @@
       <c r="CC114" t="n">
         <v>0.11504</v>
       </c>
+      <c r="CD114" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>0.22321</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -22145,6 +24511,48 @@
       <c r="CC115" t="n">
         <v>0.10619</v>
       </c>
+      <c r="CD115" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>0.14414</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>0.24324</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -22390,6 +24798,48 @@
       <c r="CC116" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="CD116" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>0.11712</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>0.15315</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>0.15315</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>0.18919</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -22635,6 +25085,48 @@
       <c r="CC117" t="n">
         <v>0.10619</v>
       </c>
+      <c r="CD117" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>0.16071</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -22880,6 +25372,48 @@
       <c r="CC118" t="n">
         <v>0.26316</v>
       </c>
+      <c r="CD118" t="n">
+        <v>0.27193</v>
+      </c>
+      <c r="CE118" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CG118" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CH118" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CI118" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CK118" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CL118" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CM118" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CN118" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CO118" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CP118" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CQ118" t="n">
+        <v>0.35398</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -23125,6 +25659,48 @@
       <c r="CC119" t="n">
         <v>0.28319</v>
       </c>
+      <c r="CD119" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CE119" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CG119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CH119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CI119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CJ119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CK119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CL119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CM119" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CN119" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CO119" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CP119" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CQ119" t="n">
+        <v>0.35714</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -23370,6 +25946,48 @@
       <c r="CC120" t="n">
         <v>0.15179</v>
       </c>
+      <c r="CD120" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CE120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CG120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CH120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CI120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CJ120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CK120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CL120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CM120" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CN120" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CO120" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CP120" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CQ120" t="n">
+        <v>0.17117</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -23615,6 +26233,48 @@
       <c r="CC121" t="n">
         <v>0.17857</v>
       </c>
+      <c r="CD121" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CE121" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>0.1982</v>
+      </c>
+      <c r="CG121" t="n">
+        <v>0.1982</v>
+      </c>
+      <c r="CH121" t="n">
+        <v>0.1982</v>
+      </c>
+      <c r="CI121" t="n">
+        <v>0.1982</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CK121" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CL121" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CM121" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CN121" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CO121" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CP121" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CQ121" t="n">
+        <v>0.21622</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -23860,6 +26520,48 @@
       <c r="CC122" t="n">
         <v>0.15179</v>
       </c>
+      <c r="CD122" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CE122" t="n">
+        <v>0.15315</v>
+      </c>
+      <c r="CF122" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="CG122" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CH122" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CI122" t="n">
+        <v>0.17117</v>
+      </c>
+      <c r="CJ122" t="n">
+        <v>0.18018</v>
+      </c>
+      <c r="CK122" t="n">
+        <v>0.18018</v>
+      </c>
+      <c r="CL122" t="n">
+        <v>0.18018</v>
+      </c>
+      <c r="CM122" t="n">
+        <v>0.18018</v>
+      </c>
+      <c r="CN122" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CO122" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CP122" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CQ122" t="n">
+        <v>0.18919</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -24105,6 +26807,48 @@
       <c r="CC123" t="n">
         <v>0.11504</v>
       </c>
+      <c r="CD123" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CE123" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CG123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CI123" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CJ123" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CK123" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CL123" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CM123" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CN123" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CO123" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CP123" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CQ123" t="n">
+        <v>0.15179</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -24350,6 +27094,48 @@
       <c r="CC124" t="n">
         <v>0.13274</v>
       </c>
+      <c r="CD124" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CE124" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CG124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CH124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CI124" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CJ124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CK124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CL124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CM124" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CN124" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CO124" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CP124" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CQ124" t="n">
+        <v>0.16071</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -24595,6 +27381,48 @@
       <c r="CC125" t="n">
         <v>0.20536</v>
       </c>
+      <c r="CD125" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CE125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CG125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CH125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CI125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CJ125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CK125" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CL125" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CM125" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CN125" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CO125" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CP125" t="n">
+        <v>0.23423</v>
+      </c>
+      <c r="CQ125" t="n">
+        <v>0.23423</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -24840,6 +27668,48 @@
       <c r="CC126" t="n">
         <v>0.19298</v>
       </c>
+      <c r="CD126" t="n">
+        <v>0.2193</v>
+      </c>
+      <c r="CE126" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CF126" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CG126" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CH126" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CI126" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CJ126" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CK126" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="CL126" t="n">
+        <v>0.23009</v>
+      </c>
+      <c r="CM126" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CN126" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CO126" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CP126" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CQ126" t="n">
+        <v>0.26549</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -25085,6 +27955,48 @@
       <c r="CC127" t="n">
         <v>0.13913</v>
       </c>
+      <c r="CD127" t="n">
+        <v>0.13913</v>
+      </c>
+      <c r="CE127" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CG127" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CH127" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CI127" t="n">
+        <v>0.14912</v>
+      </c>
+      <c r="CJ127" t="n">
+        <v>0.14912</v>
+      </c>
+      <c r="CK127" t="n">
+        <v>0.15789</v>
+      </c>
+      <c r="CL127" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="CM127" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="CN127" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="CO127" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CP127" t="n">
+        <v>0.17544</v>
+      </c>
+      <c r="CQ127" t="n">
+        <v>0.18421</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -25330,6 +28242,48 @@
       <c r="CC128" t="n">
         <v>0.24779</v>
       </c>
+      <c r="CD128" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CE128" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CG128" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH128" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CI128" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CJ128" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CK128" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CL128" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CM128" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CN128" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CO128" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CP128" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CQ128" t="n">
+        <v>0.33036</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -25575,6 +28529,48 @@
       <c r="CC129" t="n">
         <v>0.23894</v>
       </c>
+      <c r="CD129" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CE129" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CG129" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CH129" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CI129" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CJ129" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CK129" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CL129" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CM129" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CN129" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CO129" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CP129" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CQ129" t="n">
+        <v>0.30357</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -25820,6 +28816,48 @@
       <c r="CC130" t="n">
         <v>0.25664</v>
       </c>
+      <c r="CD130" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CE130" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CG130" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CH130" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CI130" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CJ130" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CK130" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CL130" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CM130" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CN130" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CO130" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CP130" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CQ130" t="n">
+        <v>0.33036</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -26065,6 +29103,48 @@
       <c r="CC131" t="n">
         <v>0.20354</v>
       </c>
+      <c r="CD131" t="n">
+        <v>0.20354</v>
+      </c>
+      <c r="CE131" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CG131" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CH131" t="n">
+        <v>0.22321</v>
+      </c>
+      <c r="CI131" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CJ131" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CK131" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CL131" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CM131" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CN131" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CO131" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CP131" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CQ131" t="n">
+        <v>0.27679</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -26310,6 +29390,48 @@
       <c r="CC132" t="n">
         <v>0.30357</v>
       </c>
+      <c r="CD132" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CE132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CG132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CH132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CI132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CJ132" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CK132" t="n">
+        <v>0.31532</v>
+      </c>
+      <c r="CL132" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CM132" t="n">
+        <v>0.34234</v>
+      </c>
+      <c r="CN132" t="n">
+        <v>0.36036</v>
+      </c>
+      <c r="CO132" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CP132" t="n">
+        <v>0.37838</v>
+      </c>
+      <c r="CQ132" t="n">
+        <v>0.41441</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -26554,6 +29676,48 @@
       </c>
       <c r="CC133" t="n">
         <v>0.30088</v>
+      </c>
+      <c r="CD133" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CE133" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CG133" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CH133" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CI133" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CJ133" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CK133" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CL133" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CM133" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CN133" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CO133" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CP133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CQ133" t="n">
+        <v>0.39286</v>
       </c>
     </row>
     <row r="134">
@@ -26782,6 +29946,48 @@
       <c r="CC134" t="n">
         <v>0.09649000000000001</v>
       </c>
+      <c r="CD134" t="n">
+        <v>0.09649000000000001</v>
+      </c>
+      <c r="CE134" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CF134" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CG134" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CH134" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CI134" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CJ134" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CK134" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CL134" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CM134" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CN134" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CO134" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CP134" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CQ134" t="n">
+        <v>0.14159</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -27027,6 +30233,48 @@
       <c r="CC135" t="n">
         <v>0.19469</v>
       </c>
+      <c r="CD135" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CE135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CF135" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CG135" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CH135" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CI135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CJ135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CK135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CL135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CM135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CN135" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CO135" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CP135" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CQ135" t="n">
+        <v>0.22321</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -27272,6 +30520,48 @@
       <c r="CC136" t="n">
         <v>0.26549</v>
       </c>
+      <c r="CD136" t="n">
+        <v>0.26549</v>
+      </c>
+      <c r="CE136" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CG136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CH136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CI136" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CJ136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CK136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CL136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CM136" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CN136" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CO136" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CP136" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CQ136" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -27517,6 +30807,48 @@
       <c r="CC137" t="n">
         <v>0.23894</v>
       </c>
+      <c r="CD137" t="n">
+        <v>0.23894</v>
+      </c>
+      <c r="CE137" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CG137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CH137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CI137" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CJ137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CK137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CL137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CM137" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CN137" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CO137" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CP137" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CQ137" t="n">
+        <v>0.27679</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -27762,6 +31094,48 @@
       <c r="CC138" t="n">
         <v>0.18584</v>
       </c>
+      <c r="CD138" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="CE138" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CF138" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CG138" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CH138" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CI138" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CJ138" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CK138" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CL138" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CM138" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CN138" t="n">
+        <v>0.22321</v>
+      </c>
+      <c r="CO138" t="n">
+        <v>0.22321</v>
+      </c>
+      <c r="CP138" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CQ138" t="n">
+        <v>0.22321</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -28007,6 +31381,48 @@
       <c r="CC139" t="n">
         <v>0.14159</v>
       </c>
+      <c r="CD139" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CE139" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CF139" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CG139" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CH139" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CI139" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CJ139" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CK139" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CL139" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CM139" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CN139" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CO139" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CP139" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="CQ139" t="n">
+        <v>0.20536</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -28252,6 +31668,48 @@
       <c r="CC140" t="n">
         <v>0.17857</v>
       </c>
+      <c r="CD140" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CE140" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="CF140" t="n">
+        <v>0.1982</v>
+      </c>
+      <c r="CG140" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CH140" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CI140" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CJ140" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CK140" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CL140" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CM140" t="n">
+        <v>0.21429</v>
+      </c>
+      <c r="CN140" t="n">
+        <v>0.22321</v>
+      </c>
+      <c r="CO140" t="n">
+        <v>0.24107</v>
+      </c>
+      <c r="CP140" t="n">
+        <v>0.23214</v>
+      </c>
+      <c r="CQ140" t="n">
+        <v>0.24107</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -28497,6 +31955,48 @@
       <c r="CC141" t="n">
         <v>0.15044</v>
       </c>
+      <c r="CD141" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CE141" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CF141" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CG141" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CH141" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CI141" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CJ141" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CK141" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CL141" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CM141" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CN141" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CO141" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CP141" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CQ141" t="n">
+        <v>0.19643</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -28742,6 +32242,48 @@
       <c r="CC142" t="n">
         <v>0.25664</v>
       </c>
+      <c r="CD142" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CE142" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CF142" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CG142" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CH142" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CI142" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CJ142" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CK142" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CL142" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CM142" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CN142" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CO142" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CP142" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CQ142" t="n">
+        <v>0.28571</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -28987,6 +32529,48 @@
       <c r="CC143" t="n">
         <v>0.30088</v>
       </c>
+      <c r="CD143" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CE143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CG143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CH143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CI143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CJ143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CK143" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CL143" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CM143" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CN143" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CO143" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CP143" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CQ143" t="n">
+        <v>0.28571</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -29232,6 +32816,48 @@
       <c r="CC144" t="n">
         <v>0.33628</v>
       </c>
+      <c r="CD144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CE144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CF144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CG144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CH144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CI144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CJ144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CK144" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CL144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CM144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CN144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CO144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CP144" t="n">
+        <v>0.33628</v>
+      </c>
+      <c r="CQ144" t="n">
+        <v>0.31858</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -29477,6 +33103,48 @@
       <c r="CC145" t="n">
         <v>0.25664</v>
       </c>
+      <c r="CD145" t="n">
+        <v>0.25664</v>
+      </c>
+      <c r="CE145" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CF145" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CG145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CH145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CI145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CJ145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CK145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CL145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CM145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CN145" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CO145" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CP145" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CQ145" t="n">
+        <v>0.26786</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -29722,6 +33390,48 @@
       <c r="CC146" t="n">
         <v>0.25893</v>
       </c>
+      <c r="CD146" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CE146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CF146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CG146" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="CH146" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="CI146" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="CJ146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CK146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CL146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CM146" t="n">
+        <v>0.27027</v>
+      </c>
+      <c r="CN146" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="CO146" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="CP146" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="CQ146" t="n">
+        <v>0.27928</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -29967,6 +33677,48 @@
       <c r="CC147" t="n">
         <v>0.28571</v>
       </c>
+      <c r="CD147" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CE147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CF147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CG147" t="n">
+        <v>0.2973</v>
+      </c>
+      <c r="CH147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CI147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CJ147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CK147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CL147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CM147" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CN147" t="n">
+        <v>0.31532</v>
+      </c>
+      <c r="CO147" t="n">
+        <v>0.31532</v>
+      </c>
+      <c r="CP147" t="n">
+        <v>0.31532</v>
+      </c>
+      <c r="CQ147" t="n">
+        <v>0.31532</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -30212,6 +33964,48 @@
       <c r="CC148" t="n">
         <v>0.1875</v>
       </c>
+      <c r="CD148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CE148" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CF148" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CG148" t="n">
+        <v>0.20721</v>
+      </c>
+      <c r="CH148" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CI148" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CJ148" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CK148" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CL148" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CM148" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CN148" t="n">
+        <v>0.21622</v>
+      </c>
+      <c r="CO148" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CP148" t="n">
+        <v>0.22523</v>
+      </c>
+      <c r="CQ148" t="n">
+        <v>0.22523</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -30457,6 +34251,48 @@
       <c r="CC149" t="n">
         <v>0.29204</v>
       </c>
+      <c r="CD149" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CE149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CG149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CH149" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CI149" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CJ149" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CK149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CL149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CM149" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CN149" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CO149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CP149" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CQ149" t="n">
+        <v>0.34821</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -30702,6 +34538,48 @@
       <c r="CC150" t="n">
         <v>0.29204</v>
       </c>
+      <c r="CD150" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CE150" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CG150" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CH150" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CI150" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CJ150" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CK150" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CL150" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CM150" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CN150" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CO150" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CP150" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CQ150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -30947,6 +34825,48 @@
       <c r="CC151" t="n">
         <v>0.28319</v>
       </c>
+      <c r="CD151" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CE151" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CG151" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CH151" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CI151" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CJ151" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CK151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CL151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CM151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CN151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CO151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CP151" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CQ151" t="n">
+        <v>0.38393</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -31192,6 +35112,48 @@
       <c r="CC152" t="n">
         <v>0.23009</v>
       </c>
+      <c r="CD152" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CE152" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CF152" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CG152" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH152" t="n">
+        <v>0.26786</v>
+      </c>
+      <c r="CI152" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CJ152" t="n">
+        <v>0.28571</v>
+      </c>
+      <c r="CK152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CL152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CM152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CN152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CO152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CP152" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ152" t="n">
+        <v>0.32143</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -31437,6 +35399,48 @@
       <c r="CC153" t="n">
         <v>0.25893</v>
       </c>
+      <c r="CD153" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CE153" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="CG153" t="n">
+        <v>0.28829</v>
+      </c>
+      <c r="CH153" t="n">
+        <v>0.30631</v>
+      </c>
+      <c r="CI153" t="n">
+        <v>0.31532</v>
+      </c>
+      <c r="CJ153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CK153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CL153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CM153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CN153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CO153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CP153" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="CQ153" t="n">
+        <v>0.33333</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -31682,6 +35686,48 @@
       <c r="CC154" t="n">
         <v>0.23894</v>
       </c>
+      <c r="CD154" t="n">
+        <v>0.24779</v>
+      </c>
+      <c r="CE154" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CF154" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CG154" t="n">
+        <v>0.25893</v>
+      </c>
+      <c r="CH154" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CI154" t="n">
+        <v>0.27679</v>
+      </c>
+      <c r="CJ154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CK154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CL154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CM154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CN154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CO154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CP154" t="n">
+        <v>0.29464</v>
+      </c>
+      <c r="CQ154" t="n">
+        <v>0.29464</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -31927,6 +35973,48 @@
       <c r="CC155" t="n">
         <v>0.14159</v>
       </c>
+      <c r="CD155" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CE155" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CF155" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CG155" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CH155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CI155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CJ155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CK155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CL155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CM155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CN155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CO155" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CP155" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CQ155" t="n">
+        <v>0.16964</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -32172,6 +36260,48 @@
       <c r="CC156" t="n">
         <v>0.30973</v>
       </c>
+      <c r="CD156" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CE156" t="n">
+        <v>0.30357</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>0.32143</v>
+      </c>
+      <c r="CG156" t="n">
+        <v>0.33036</v>
+      </c>
+      <c r="CH156" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CI156" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CJ156" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CK156" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CL156" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CM156" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CN156" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CO156" t="n">
+        <v>0.34821</v>
+      </c>
+      <c r="CP156" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CQ156" t="n">
+        <v>0.36607</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -32417,6 +36547,48 @@
       <c r="CC157" t="n">
         <v>0.38938</v>
       </c>
+      <c r="CD157" t="n">
+        <v>0.38938</v>
+      </c>
+      <c r="CE157" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CF157" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CG157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CH157" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CI157" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CJ157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CK157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CL157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CM157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CN157" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CO157" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CP157" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="CQ157" t="n">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -32662,6 +36834,48 @@
       <c r="CC158" t="n">
         <v>0.39823</v>
       </c>
+      <c r="CD158" t="n">
+        <v>0.39823</v>
+      </c>
+      <c r="CE158" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CF158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CG158" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CH158" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CI158" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CJ158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CK158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CL158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CM158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CN158" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CO158" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CP158" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CQ158" t="n">
+        <v>0.42857</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -32907,6 +37121,48 @@
       <c r="CC159" t="n">
         <v>0.31579</v>
       </c>
+      <c r="CD159" t="n">
+        <v>0.30702</v>
+      </c>
+      <c r="CE159" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CF159" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CG159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CH159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CI159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CJ159" t="n">
+        <v>0.30973</v>
+      </c>
+      <c r="CK159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CL159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CM159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CN159" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="CO159" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CP159" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CQ159" t="n">
+        <v>0.34513</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -33152,6 +37408,48 @@
       <c r="CC160" t="n">
         <v>0.61404</v>
       </c>
+      <c r="CD160" t="n">
+        <v>0.60526</v>
+      </c>
+      <c r="CE160" t="n">
+        <v>0.6106200000000001</v>
+      </c>
+      <c r="CF160" t="n">
+        <v>0.6106200000000001</v>
+      </c>
+      <c r="CG160" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CH160" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CI160" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CJ160" t="n">
+        <v>0.62832</v>
+      </c>
+      <c r="CK160" t="n">
+        <v>0.63717</v>
+      </c>
+      <c r="CL160" t="n">
+        <v>0.63717</v>
+      </c>
+      <c r="CM160" t="n">
+        <v>0.65487</v>
+      </c>
+      <c r="CN160" t="n">
+        <v>0.65487</v>
+      </c>
+      <c r="CO160" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CP160" t="n">
+        <v>0.69912</v>
+      </c>
+      <c r="CQ160" t="n">
+        <v>0.70796</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -33397,6 +37695,48 @@
       <c r="CC161" t="n">
         <v>0.57895</v>
       </c>
+      <c r="CD161" t="n">
+        <v>0.57018</v>
+      </c>
+      <c r="CE161" t="n">
+        <v>0.57522</v>
+      </c>
+      <c r="CF161" t="n">
+        <v>0.57522</v>
+      </c>
+      <c r="CG161" t="n">
+        <v>0.58407</v>
+      </c>
+      <c r="CH161" t="n">
+        <v>0.58407</v>
+      </c>
+      <c r="CI161" t="n">
+        <v>0.58407</v>
+      </c>
+      <c r="CJ161" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="CK161" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="CL161" t="n">
+        <v>0.59292</v>
+      </c>
+      <c r="CM161" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CN161" t="n">
+        <v>0.61947</v>
+      </c>
+      <c r="CO161" t="n">
+        <v>0.62832</v>
+      </c>
+      <c r="CP161" t="n">
+        <v>0.66372</v>
+      </c>
+      <c r="CQ161" t="n">
+        <v>0.66372</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -33642,6 +37982,48 @@
       <c r="CC162" t="n">
         <v>0.17544</v>
       </c>
+      <c r="CD162" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="CE162" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CF162" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CG162" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CH162" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CI162" t="n">
+        <v>0.16814</v>
+      </c>
+      <c r="CJ162" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CK162" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CL162" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="CM162" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="CN162" t="n">
+        <v>0.18584</v>
+      </c>
+      <c r="CO162" t="n">
+        <v>0.19469</v>
+      </c>
+      <c r="CP162" t="n">
+        <v>0.21239</v>
+      </c>
+      <c r="CQ162" t="n">
+        <v>0.21239</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -33887,6 +38269,48 @@
       <c r="CC163" t="n">
         <v>0.2807</v>
       </c>
+      <c r="CD163" t="n">
+        <v>0.2807</v>
+      </c>
+      <c r="CE163" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CG163" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CH163" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CI163" t="n">
+        <v>0.29204</v>
+      </c>
+      <c r="CJ163" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CK163" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CL163" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CM163" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CN163" t="n">
+        <v>0.30088</v>
+      </c>
+      <c r="CO163" t="n">
+        <v>0.32743</v>
+      </c>
+      <c r="CP163" t="n">
+        <v>0.35398</v>
+      </c>
+      <c r="CQ163" t="n">
+        <v>0.36283</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -34132,6 +38556,48 @@
       <c r="CC164" t="n">
         <v>0.34513</v>
       </c>
+      <c r="CD164" t="n">
+        <v>0.34513</v>
+      </c>
+      <c r="CE164" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CF164" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CG164" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CH164" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CI164" t="n">
+        <v>0.35714</v>
+      </c>
+      <c r="CJ164" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CK164" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CL164" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CM164" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CN164" t="n">
+        <v>0.36607</v>
+      </c>
+      <c r="CO164" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CP164" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CQ164" t="n">
+        <v>0.41071</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -34377,6 +38843,48 @@
       <c r="CC165" t="n">
         <v>0.38053</v>
       </c>
+      <c r="CD165" t="n">
+        <v>0.38053</v>
+      </c>
+      <c r="CE165" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CF165" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CG165" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CH165" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CI165" t="n">
+        <v>0.39286</v>
+      </c>
+      <c r="CJ165" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CK165" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CL165" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CM165" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CN165" t="n">
+        <v>0.40179</v>
+      </c>
+      <c r="CO165" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="CP165" t="n">
+        <v>0.41964</v>
+      </c>
+      <c r="CQ165" t="n">
+        <v>0.41964</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -34622,6 +39130,48 @@
       <c r="CC166" t="n">
         <v>0.41593</v>
       </c>
+      <c r="CD166" t="n">
+        <v>0.41593</v>
+      </c>
+      <c r="CE166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CF166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CG166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CH166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CI166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CJ166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CK166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CL166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CM166" t="n">
+        <v>0.42857</v>
+      </c>
+      <c r="CN166" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="CO166" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="CP166" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="CQ166" t="n">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -34867,6 +39417,48 @@
       <c r="CC167" t="n">
         <v>0.38393</v>
       </c>
+      <c r="CD167" t="n">
+        <v>0.38393</v>
+      </c>
+      <c r="CE167" t="n">
+        <v>0.38739</v>
+      </c>
+      <c r="CF167" t="n">
+        <v>0.38739</v>
+      </c>
+      <c r="CG167" t="n">
+        <v>0.38739</v>
+      </c>
+      <c r="CH167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CI167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CJ167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CK167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CL167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CM167" t="n">
+        <v>0.40541</v>
+      </c>
+      <c r="CN167" t="n">
+        <v>0.41441</v>
+      </c>
+      <c r="CO167" t="n">
+        <v>0.41441</v>
+      </c>
+      <c r="CP167" t="n">
+        <v>0.41441</v>
+      </c>
+      <c r="CQ167" t="n">
+        <v>0.41441</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -35112,6 +39704,48 @@
       <c r="CC168" t="n">
         <v>0.33929</v>
       </c>
+      <c r="CD168" t="n">
+        <v>0.33929</v>
+      </c>
+      <c r="CE168" t="n">
+        <v>0.34234</v>
+      </c>
+      <c r="CF168" t="n">
+        <v>0.34234</v>
+      </c>
+      <c r="CG168" t="n">
+        <v>0.34234</v>
+      </c>
+      <c r="CH168" t="n">
+        <v>0.36036</v>
+      </c>
+      <c r="CI168" t="n">
+        <v>0.36036</v>
+      </c>
+      <c r="CJ168" t="n">
+        <v>0.36036</v>
+      </c>
+      <c r="CK168" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CL168" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CM168" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CN168" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CO168" t="n">
+        <v>0.36937</v>
+      </c>
+      <c r="CP168" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CQ168" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -35357,6 +39991,48 @@
       <c r="CC169" t="n">
         <v>0.14035</v>
       </c>
+      <c r="CD169" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="CE169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CF169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CG169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CH169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CI169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CJ169" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CK169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CL169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CM169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CN169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CO169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CP169" t="n">
+        <v>0.15044</v>
+      </c>
+      <c r="CQ169" t="n">
+        <v>0.15044</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -35602,6 +40278,48 @@
       <c r="CC170" t="n">
         <v>0.14159</v>
       </c>
+      <c r="CD170" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CE170" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CF170" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CG170" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CH170" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CI170" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CJ170" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CK170" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CL170" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CM170" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CN170" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CO170" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CP170" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CQ170" t="n">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -35847,6 +40565,48 @@
       <c r="CC171" t="n">
         <v>0.13274</v>
       </c>
+      <c r="CD171" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CE171" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CF171" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CG171" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CH171" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CI171" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CJ171" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CK171" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CL171" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CM171" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CN171" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CO171" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CP171" t="n">
+        <v>0.20536</v>
+      </c>
+      <c r="CQ171" t="n">
+        <v>0.20536</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -36091,6 +40851,48 @@
       </c>
       <c r="CC172" t="n">
         <v>0.11504</v>
+      </c>
+      <c r="CD172" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CE172" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CF172" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CG172" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CH172" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CI172" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CJ172" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CK172" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CL172" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CM172" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CN172" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CO172" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CP172" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CQ172" t="n">
+        <v>0.16964</v>
       </c>
     </row>
     <row r="173">
@@ -36253,6 +41055,48 @@
       <c r="CC173" t="n">
         <v>0.14159</v>
       </c>
+      <c r="CD173" t="n">
+        <v>0.14159</v>
+      </c>
+      <c r="CE173" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CG173" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CH173" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CI173" t="n">
+        <v>0.14286</v>
+      </c>
+      <c r="CJ173" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CK173" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CL173" t="n">
+        <v>0.15179</v>
+      </c>
+      <c r="CM173" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CN173" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CO173" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CP173" t="n">
+        <v>0.16964</v>
+      </c>
+      <c r="CQ173" t="n">
+        <v>0.16964</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -36414,6 +41258,48 @@
       <c r="CC174" t="n">
         <v>0.15929</v>
       </c>
+      <c r="CD174" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="CE174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CF174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CG174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CH174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CI174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CJ174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CK174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CL174" t="n">
+        <v>0.16071</v>
+      </c>
+      <c r="CM174" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CN174" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CO174" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CP174" t="n">
+        <v>0.17857</v>
+      </c>
+      <c r="CQ174" t="n">
+        <v>0.17857</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -36575,6 +41461,48 @@
       <c r="CC175" t="n">
         <v>0.10811</v>
       </c>
+      <c r="CD175" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CE175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CF175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CG175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CH175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CI175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CJ175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CK175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CL175" t="n">
+        <v>0.10909</v>
+      </c>
+      <c r="CM175" t="n">
+        <v>0.12727</v>
+      </c>
+      <c r="CN175" t="n">
+        <v>0.12727</v>
+      </c>
+      <c r="CO175" t="n">
+        <v>0.12727</v>
+      </c>
+      <c r="CP175" t="n">
+        <v>0.12727</v>
+      </c>
+      <c r="CQ175" t="n">
+        <v>0.12727</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -36736,6 +41664,48 @@
       <c r="CC176" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="CD176" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CE176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CF176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CG176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CH176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CI176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CJ176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CK176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CL176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CM176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CN176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CO176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CP176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CQ176" t="n">
+        <v>0.09821000000000001</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -36897,6 +41867,48 @@
       <c r="CC177" t="n">
         <v>0.12389</v>
       </c>
+      <c r="CD177" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CE177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CF177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CG177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CI177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CJ177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CL177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CM177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CN177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CO177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CP177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CQ177" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -37058,6 +42070,48 @@
       <c r="CC178" t="n">
         <v>0.13274</v>
       </c>
+      <c r="CD178" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="CE178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CF178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CG178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CH178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CI178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CJ178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CK178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CL178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CM178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CN178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CO178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CP178" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CQ178" t="n">
+        <v>0.14286</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -37219,6 +42273,48 @@
       <c r="CC179" t="n">
         <v>0.12281</v>
       </c>
+      <c r="CD179" t="n">
+        <v>0.12281</v>
+      </c>
+      <c r="CE179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CF179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CG179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CH179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CI179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CJ179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CK179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CL179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CM179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CN179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CO179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CP179" t="n">
+        <v>0.12389</v>
+      </c>
+      <c r="CQ179" t="n">
+        <v>0.13274</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -37380,6 +42476,48 @@
       <c r="CC180" t="n">
         <v>0.09735000000000001</v>
       </c>
+      <c r="CD180" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="CE180" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CF180" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CG180" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CH180" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CI180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CJ180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CK180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CL180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CM180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CN180" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CO180" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CP180" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CQ180" t="n">
+        <v>0.11607</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -37541,6 +42679,48 @@
       <c r="CC181" t="n">
         <v>0.07142999999999999</v>
       </c>
+      <c r="CD181" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CE181" t="n">
+        <v>0.08108</v>
+      </c>
+      <c r="CF181" t="n">
+        <v>0.08108</v>
+      </c>
+      <c r="CG181" t="n">
+        <v>0.08108</v>
+      </c>
+      <c r="CH181" t="n">
+        <v>0.08108</v>
+      </c>
+      <c r="CI181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CJ181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CK181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CL181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CM181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CN181" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="CO181" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CP181" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CQ181" t="n">
+        <v>0.09909999999999999</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -37702,6 +42882,48 @@
       <c r="CC182" t="n">
         <v>0.08928999999999999</v>
       </c>
+      <c r="CD182" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="CE182" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CF182" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CG182" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CH182" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="CI182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CJ182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CK182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CL182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CM182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CN182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CO182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CP182" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="CQ182" t="n">
+        <v>0.10811</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -37863,6 +43085,48 @@
       <c r="CC183" t="n">
         <v>0.06195</v>
       </c>
+      <c r="CD183" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="CE183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CF183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CG183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CH183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CI183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CJ183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CK183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CL183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CM183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CN183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CO183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CP183" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CQ183" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -38024,6 +43288,48 @@
       <c r="CC184" t="n">
         <v>0.04425</v>
       </c>
+      <c r="CD184" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="CE184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CF184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CG184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CH184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CI184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CJ184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CK184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CL184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CM184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CN184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CO184" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CP184" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CQ184" t="n">
+        <v>0.07142999999999999</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -38185,6 +43491,48 @@
       <c r="CC185" t="n">
         <v>0.04425</v>
       </c>
+      <c r="CD185" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="CE185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CF185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CG185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CH185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CI185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CJ185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CK185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CL185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CM185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CN185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CO185" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CP185" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CQ185" t="n">
+        <v>0.07142999999999999</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -38346,6 +43694,48 @@
       <c r="CC186" t="n">
         <v>0.04425</v>
       </c>
+      <c r="CD186" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="CE186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CF186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CG186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CH186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CI186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CJ186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CK186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CL186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CM186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CN186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CO186" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CP186" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CQ186" t="n">
+        <v>0.07142999999999999</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -38507,6 +43897,48 @@
       <c r="CC187" t="n">
         <v>0.04425</v>
       </c>
+      <c r="CD187" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="CE187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CF187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CG187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CH187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CI187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CJ187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CK187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CL187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CM187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CN187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CO187" t="n">
+        <v>0.05357</v>
+      </c>
+      <c r="CP187" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="CQ187" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -38668,6 +44100,48 @@
       <c r="CC188" t="n">
         <v>0.06306</v>
       </c>
+      <c r="CD188" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CE188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CF188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CG188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CH188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CI188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CJ188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CK188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CL188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CM188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CN188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CO188" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CP188" t="n">
+        <v>0.07273</v>
+      </c>
+      <c r="CQ188" t="n">
+        <v>0.07273</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -38829,6 +44303,48 @@
       <c r="CC189" t="n">
         <v>0.06306</v>
       </c>
+      <c r="CD189" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="CE189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CF189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CG189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CH189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CI189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CJ189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CK189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CL189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CM189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CN189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CO189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CP189" t="n">
+        <v>0.06364</v>
+      </c>
+      <c r="CQ189" t="n">
+        <v>0.06364</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -38990,6 +44506,48 @@
       <c r="CC190" t="n">
         <v>0.01786</v>
       </c>
+      <c r="CD190" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CE190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CF190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CG190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CH190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CI190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CJ190" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="CK190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CL190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CM190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CN190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CO190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CP190" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CQ190" t="n">
+        <v>0.02679</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -39151,6 +44709,48 @@
       <c r="CC191" t="n">
         <v>0.0708</v>
       </c>
+      <c r="CD191" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CE191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CF191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CG191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CH191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CI191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CJ191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CK191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CL191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CM191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CN191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CO191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CP191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CQ191" t="n">
+        <v>0.07142999999999999</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -39312,6 +44912,48 @@
       <c r="CC192" t="n">
         <v>0.0885</v>
       </c>
+      <c r="CD192" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CE192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CF192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CG192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CH192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CI192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CJ192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CK192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CL192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CM192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CN192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CO192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CP192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CQ192" t="n">
+        <v>0.08928999999999999</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -39473,6 +45115,48 @@
       <c r="CC193" t="n">
         <v>0.0885</v>
       </c>
+      <c r="CD193" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CE193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CF193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CG193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CH193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CI193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CJ193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CK193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CL193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CM193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CN193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CO193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CP193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CQ193" t="n">
+        <v>0.08928999999999999</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -39634,6 +45318,48 @@
       <c r="CC194" t="n">
         <v>0.0614</v>
       </c>
+      <c r="CD194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="CE194" t="n">
+        <v>0.06195</v>
+      </c>
+      <c r="CF194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CG194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CH194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CI194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CJ194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CK194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CL194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CM194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CN194" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CO194" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CP194" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CQ194" t="n">
+        <v>0.07965</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -39795,6 +45521,48 @@
       <c r="CC195" t="n">
         <v>0.0708</v>
       </c>
+      <c r="CD195" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="CE195" t="n">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="CF195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CG195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CH195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CI195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CJ195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CK195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CL195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CM195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CN195" t="n">
+        <v>0.08036</v>
+      </c>
+      <c r="CO195" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CP195" t="n">
+        <v>0.08928999999999999</v>
+      </c>
+      <c r="CQ195" t="n">
+        <v>0.08928999999999999</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -39956,6 +45724,48 @@
       <c r="CC196" t="n">
         <v>0.11504</v>
       </c>
+      <c r="CD196" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="CE196" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CF196" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CG196" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CH196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CI196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CJ196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CL196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CM196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CN196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CO196" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CP196" t="n">
+        <v>0.13393</v>
+      </c>
+      <c r="CQ196" t="n">
+        <v>0.13393</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -40117,6 +45927,48 @@
       <c r="CC197" t="n">
         <v>0.10619</v>
       </c>
+      <c r="CD197" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="CE197" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CF197" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CG197" t="n">
+        <v>0.10714</v>
+      </c>
+      <c r="CH197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CI197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CJ197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CK197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CL197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CM197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CN197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CO197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CP197" t="n">
+        <v>0.11607</v>
+      </c>
+      <c r="CQ197" t="n">
+        <v>0.11607</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -40278,6 +46130,48 @@
       <c r="CC198" t="n">
         <v>0.07965</v>
       </c>
+      <c r="CD198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CE198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CF198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CG198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CH198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CI198" t="n">
+        <v>0.07965</v>
+      </c>
+      <c r="CJ198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CK198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CL198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CM198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CN198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CO198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CP198" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="CQ198" t="n">
+        <v>0.0885</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -40439,6 +46333,48 @@
       <c r="CC199" t="n">
         <v>0.0177</v>
       </c>
+      <c r="CD199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CE199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CF199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CG199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CH199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CI199" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CJ199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CK199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CL199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CM199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CN199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CO199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CP199" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="CQ199" t="n">
+        <v>0.02655</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -40600,10 +46536,52 @@
       <c r="CC200" t="n">
         <v>0.00885</v>
       </c>
+      <c r="CD200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CE200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CF200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CG200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CH200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CI200" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CJ200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CK200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CL200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CM200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CN200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CO200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CP200" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="CQ200" t="n">
+        <v>0.0177</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
@@ -40647,124 +46625,78 @@
       <c r="AO201" t="inlineStr"/>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
-      <c r="AR201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AS201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AT201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AU201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AV201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AW201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AX201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AY201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="AZ201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BA201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BB201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BC201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BD201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BE201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BF201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BG201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BH201" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="BI201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BJ201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BK201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BL201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BM201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BN201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BO201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BP201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BQ201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BR201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BS201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BT201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BU201" t="n">
-        <v>0.01869</v>
-      </c>
-      <c r="BV201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="BW201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="BX201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="BY201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="BZ201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="CA201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="CB201" t="n">
-        <v>0.01786</v>
-      </c>
-      <c r="CC201" t="n">
-        <v>0.01786</v>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr"/>
+      <c r="AT201" t="inlineStr"/>
+      <c r="AU201" t="inlineStr"/>
+      <c r="AV201" t="inlineStr"/>
+      <c r="AW201" t="inlineStr"/>
+      <c r="AX201" t="inlineStr"/>
+      <c r="AY201" t="inlineStr"/>
+      <c r="AZ201" t="inlineStr"/>
+      <c r="BA201" t="inlineStr"/>
+      <c r="BB201" t="inlineStr"/>
+      <c r="BC201" t="inlineStr"/>
+      <c r="BD201" t="inlineStr"/>
+      <c r="BE201" t="inlineStr"/>
+      <c r="BF201" t="inlineStr"/>
+      <c r="BG201" t="inlineStr"/>
+      <c r="BH201" t="inlineStr"/>
+      <c r="BI201" t="inlineStr"/>
+      <c r="BJ201" t="inlineStr"/>
+      <c r="BK201" t="inlineStr"/>
+      <c r="BL201" t="inlineStr"/>
+      <c r="BM201" t="inlineStr"/>
+      <c r="BN201" t="inlineStr"/>
+      <c r="BO201" t="inlineStr"/>
+      <c r="BP201" t="inlineStr"/>
+      <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
+      <c r="BS201" t="inlineStr"/>
+      <c r="BT201" t="inlineStr"/>
+      <c r="BU201" t="inlineStr"/>
+      <c r="BV201" t="inlineStr"/>
+      <c r="BW201" t="inlineStr"/>
+      <c r="BX201" t="inlineStr"/>
+      <c r="BY201" t="inlineStr"/>
+      <c r="BZ201" t="inlineStr"/>
+      <c r="CA201" t="inlineStr"/>
+      <c r="CB201" t="inlineStr"/>
+      <c r="CC201" t="inlineStr"/>
+      <c r="CD201" t="inlineStr"/>
+      <c r="CE201" t="inlineStr"/>
+      <c r="CF201" t="inlineStr"/>
+      <c r="CG201" t="inlineStr"/>
+      <c r="CH201" t="inlineStr"/>
+      <c r="CI201" t="inlineStr"/>
+      <c r="CJ201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CK201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CL201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CM201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CN201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CO201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CP201" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CQ201" t="n">
+        <v>0.00885</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
@@ -40809,94 +46741,94 @@
       <c r="AP202" t="inlineStr"/>
       <c r="AQ202" t="inlineStr"/>
       <c r="AR202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AU202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AV202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AW202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AX202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AY202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="AZ202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BA202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BB202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BC202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BD202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BE202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BF202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BG202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BH202" t="n">
-        <v>0.00893</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="BI202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BJ202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BK202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BL202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BM202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BN202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BO202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BP202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BQ202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BR202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BS202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BT202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BU202" t="n">
-        <v>0.01786</v>
+        <v>0.01869</v>
       </c>
       <c r="BV202" t="n">
         <v>0.01786</v>
@@ -40921,11 +46853,53 @@
       </c>
       <c r="CC202" t="n">
         <v>0.01786</v>
+      </c>
+      <c r="CD202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CE202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CF202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CG202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CH202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CI202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CJ202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CK202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CL202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CM202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CN202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CO202" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CP202" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CQ202" t="n">
+        <v>0.02679</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
@@ -40969,90 +46943,166 @@
       <c r="AO203" t="inlineStr"/>
       <c r="AP203" t="inlineStr"/>
       <c r="AQ203" t="inlineStr"/>
-      <c r="AR203" t="inlineStr"/>
-      <c r="AS203" t="inlineStr"/>
-      <c r="AT203" t="inlineStr"/>
-      <c r="AU203" t="inlineStr"/>
-      <c r="AV203" t="inlineStr"/>
-      <c r="AW203" t="inlineStr"/>
-      <c r="AX203" t="inlineStr"/>
-      <c r="AY203" t="inlineStr"/>
-      <c r="AZ203" t="inlineStr"/>
-      <c r="BA203" t="inlineStr"/>
-      <c r="BB203" t="inlineStr"/>
-      <c r="BC203" t="inlineStr"/>
-      <c r="BD203" t="inlineStr"/>
-      <c r="BE203" t="inlineStr"/>
-      <c r="BF203" t="inlineStr"/>
-      <c r="BG203" t="inlineStr"/>
-      <c r="BH203" t="inlineStr"/>
+      <c r="AR203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>0.00893</v>
+      </c>
       <c r="BI203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BJ203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BK203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BL203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BM203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BN203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BO203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BP203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BQ203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BR203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BS203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BT203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BU203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BV203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BW203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BX203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BY203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="BZ203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="CA203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="CB203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
       </c>
       <c r="CC203" t="n">
-        <v>0.00885</v>
+        <v>0.01786</v>
+      </c>
+      <c r="CD203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CE203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CF203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CG203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CH203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CI203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CJ203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CK203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CL203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CM203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CN203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CO203" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="CP203" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="CQ203" t="n">
+        <v>0.02679</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45548</v>
+        <v>45536</v>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
@@ -41111,79 +47161,117 @@
       <c r="BD204" t="inlineStr"/>
       <c r="BE204" t="inlineStr"/>
       <c r="BF204" t="inlineStr"/>
-      <c r="BG204" t="n">
-        <v>0.00877</v>
-      </c>
-      <c r="BH204" t="n">
-        <v>0.00877</v>
-      </c>
+      <c r="BG204" t="inlineStr"/>
+      <c r="BH204" t="inlineStr"/>
       <c r="BI204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BJ204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BK204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BL204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BM204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BN204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BO204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BP204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BQ204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BR204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BS204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BT204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BU204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BV204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BW204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BX204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BY204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="BZ204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="CA204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="CB204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
       </c>
       <c r="CC204" t="n">
-        <v>0.00877</v>
+        <v>0.00885</v>
+      </c>
+      <c r="CD204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CE204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CF204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CG204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CH204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CI204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CJ204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CK204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CL204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CM204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CN204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CO204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CP204" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="CQ204" t="n">
+        <v>0.00885</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45555</v>
+        <v>45548</v>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
@@ -41311,10 +47399,52 @@
       <c r="CC205" t="n">
         <v>0.00877</v>
       </c>
+      <c r="CD205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CE205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CF205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CG205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CH205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CI205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CJ205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CK205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CL205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CM205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CN205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CO205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CP205" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CQ205" t="n">
+        <v>0.00877</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45576</v>
+        <v>45555</v>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
@@ -41373,71 +47503,121 @@
       <c r="BD206" t="inlineStr"/>
       <c r="BE206" t="inlineStr"/>
       <c r="BF206" t="inlineStr"/>
-      <c r="BG206" t="inlineStr"/>
-      <c r="BH206" t="inlineStr"/>
-      <c r="BI206" t="inlineStr"/>
-      <c r="BJ206" t="inlineStr"/>
+      <c r="BG206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>0.00877</v>
+      </c>
       <c r="BK206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BL206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BM206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BN206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BO206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BP206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BQ206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BR206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BS206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BT206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BU206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BV206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BW206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BX206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BY206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="BZ206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="CA206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="CB206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
       </c>
       <c r="CC206" t="n">
-        <v>0.15652</v>
+        <v>0.00877</v>
+      </c>
+      <c r="CD206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CE206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CF206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CG206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CH206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CI206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CJ206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CK206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CL206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CM206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CN206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CO206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CP206" t="n">
+        <v>0.00877</v>
+      </c>
+      <c r="CQ206" t="n">
+        <v>0.00877</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45577</v>
+        <v>45576</v>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr"/>
@@ -41557,10 +47737,52 @@
       <c r="CC207" t="n">
         <v>0.15652</v>
       </c>
+      <c r="CD207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CE207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CF207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CG207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CH207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CI207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CJ207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CK207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CL207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CM207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CN207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CO207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CP207" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CQ207" t="n">
+        <v>0.15652</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45578</v>
+        <v>45577</v>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
@@ -41624,60 +47846,267 @@
       <c r="BI208" t="inlineStr"/>
       <c r="BJ208" t="inlineStr"/>
       <c r="BK208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BQ208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BR208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BS208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BT208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BV208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BW208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BX208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BY208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="BZ208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CA208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CB208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CC208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CD208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CE208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CF208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CG208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CH208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CI208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CJ208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CK208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CL208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CM208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CN208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CO208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CP208" t="n">
+        <v>0.15652</v>
+      </c>
+      <c r="CQ208" t="n">
+        <v>0.15652</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+      <c r="AO209" t="inlineStr"/>
+      <c r="AP209" t="inlineStr"/>
+      <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr"/>
+      <c r="AT209" t="inlineStr"/>
+      <c r="AU209" t="inlineStr"/>
+      <c r="AV209" t="inlineStr"/>
+      <c r="AW209" t="inlineStr"/>
+      <c r="AX209" t="inlineStr"/>
+      <c r="AY209" t="inlineStr"/>
+      <c r="AZ209" t="inlineStr"/>
+      <c r="BA209" t="inlineStr"/>
+      <c r="BB209" t="inlineStr"/>
+      <c r="BC209" t="inlineStr"/>
+      <c r="BD209" t="inlineStr"/>
+      <c r="BE209" t="inlineStr"/>
+      <c r="BF209" t="inlineStr"/>
+      <c r="BG209" t="inlineStr"/>
+      <c r="BH209" t="inlineStr"/>
+      <c r="BI209" t="inlineStr"/>
+      <c r="BJ209" t="inlineStr"/>
+      <c r="BK209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BL208" t="n">
+      <c r="BL209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BM208" t="n">
+      <c r="BM209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BN208" t="n">
+      <c r="BN209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BO208" t="n">
+      <c r="BO209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BP208" t="n">
+      <c r="BP209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BQ208" t="n">
+      <c r="BQ209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BR208" t="n">
+      <c r="BR209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BS208" t="n">
+      <c r="BS209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BT208" t="n">
+      <c r="BT209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BU208" t="n">
+      <c r="BU209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BV208" t="n">
+      <c r="BV209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BW208" t="n">
+      <c r="BW209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BX208" t="n">
+      <c r="BX209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BY208" t="n">
+      <c r="BY209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="BZ208" t="n">
+      <c r="BZ209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="CA208" t="n">
+      <c r="CA209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="CB208" t="n">
+      <c r="CB209" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="CC208" t="n">
+      <c r="CC209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CD209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CE209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CF209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CG209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CH209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CI209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CJ209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CK209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CL209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CM209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CN209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CO209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CP209" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="CQ209" t="n">
         <v>0.008699999999999999</v>
       </c>
     </row>
